--- a/docs/成员分.xlsx
+++ b/docs/成员分.xlsx
@@ -39,7 +39,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-修复BUG，非完整性功能</t>
+修复Alpha阶段BUG，非完整性功能</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>日贡献评分</t>
   </si>
@@ -502,7 +502,7 @@
     <t>成员贡献分分配文档</t>
   </si>
   <si>
-    <t>2017/11/28（二）</t>
+    <t>2017/11/28（二）2017/11/29（二）</t>
   </si>
   <si>
     <t>修复ascii码导致的文件名显示问题（遗留问题）</t>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>补充接口设计文档（博文相关）</t>
+  </si>
+  <si>
+    <t>ScrumMeeting博客</t>
   </si>
 </sst>
 </file>
@@ -519,12 +522,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -586,27 +589,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -614,22 +596,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -638,14 +612,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -661,37 +627,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,6 +673,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -728,6 +709,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -738,13 +741,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,73 +795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,19 +813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,31 +843,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +879,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,13 +915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,13 +1024,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1072,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1071,17 +1102,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,30 +1121,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1126,10 +1129,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,137 +1141,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,9 +1284,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,13 +1308,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1323,7 +1323,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1774,141 +1774,141 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="33"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:24">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I18" si="0">((G3+H3)*0.5)*D3*10*(1+(E3+F3)*0.25)</f>
         <v>160</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <f>SUMIF($B$3:$B$105,K2,$I$3:$I$105)</f>
         <v>653.75</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <f>SUMIF($B$3:$B$105,L2,$I$3:$I$105)</f>
         <v>606</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <f>SUMIF($B$3:$B$105,M2,$I$3:$I$105)</f>
         <v>862.5</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="16">
         <f>SUMIF($B$3:$B$105,N2,$I$3:$I$105)</f>
         <v>663</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="16">
         <f>SUMIF($B$3:$B$105,O2,$I$3:$I$105)</f>
         <v>622.25</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="16">
         <f>SUMIF($B$3:$B$105,P2,$I$3:$I$105)</f>
         <v>652.5</v>
       </c>
@@ -1916,71 +1916,71 @@
         <f ca="1">SUM(K3:P3)</f>
         <v>4060</v>
       </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="33"/>
+      <c r="S3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="36">
-        <v>2</v>
-      </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
+      <c r="U3" s="35">
+        <v>2</v>
+      </c>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
     </row>
     <row r="4" customHeight="1" spans="1:24">
-      <c r="A4" s="20"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <f ca="1">K3/$Q3*300</f>
         <v>48.3066502463054</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <f ca="1">L3/$Q3*300</f>
         <v>44.7783251231527</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <f ca="1" t="shared" ref="K4:P4" si="1">M3/$Q3*300</f>
         <v>63.7315270935961</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <f ca="1" t="shared" si="1"/>
         <v>48.9901477832512</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="17">
         <f ca="1" t="shared" si="1"/>
         <v>45.9790640394089</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="17">
         <f ca="1" t="shared" si="1"/>
         <v>48.2142857142857</v>
       </c>
@@ -1988,1520 +1988,1520 @@
         <f ca="1">SUM(K4:P4)</f>
         <v>300</v>
       </c>
-      <c r="R4" s="30"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
     </row>
     <row r="5" customHeight="1" spans="1:24">
-      <c r="A5" s="20"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <v>48</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>45</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <v>64</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <v>50</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <v>46</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="17">
         <v>47</v>
       </c>
-      <c r="R5" s="30"/>
+      <c r="R5" s="29"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
     </row>
     <row r="6" customHeight="1" spans="1:24">
-      <c r="A6" s="20"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="R6" s="30"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
     </row>
     <row r="7" customHeight="1" spans="1:24">
-      <c r="A7" s="20"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R7" s="30"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
     </row>
     <row r="8" customHeight="1" spans="1:24">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
         <v>0.8</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="R8" s="30"/>
+      <c r="R8" s="29"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
     </row>
     <row r="9" customHeight="1" spans="1:24">
-      <c r="A9" s="21"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
         <v>0.8</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0.8</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R9" s="30"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
     </row>
     <row r="10" customHeight="1" spans="1:24">
-      <c r="A10" s="21"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R10" s="30"/>
+      <c r="R10" s="29"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
     </row>
     <row r="11" customHeight="1" spans="1:24">
-      <c r="A11" s="21"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R11" s="30"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
     </row>
     <row r="12" customHeight="1" spans="1:24">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>5</v>
       </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="R12" s="30"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
     </row>
     <row r="13" customHeight="1" spans="1:24">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="23">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R13" s="30"/>
+      <c r="R13" s="29"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
     </row>
     <row r="14" customHeight="1" spans="1:24">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>4</v>
       </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R14" s="30"/>
+      <c r="R14" s="29"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
     </row>
     <row r="15" customHeight="1" spans="1:24">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>4</v>
       </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23">
-        <v>2</v>
-      </c>
-      <c r="G15" s="23">
-        <v>1</v>
-      </c>
-      <c r="H15" s="23">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="R15" s="30"/>
+      <c r="R15" s="29"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
     </row>
     <row r="16" customHeight="1" spans="1:24">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="23">
-        <v>2</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23">
-        <v>1</v>
-      </c>
-      <c r="H16" s="23">
-        <v>1</v>
-      </c>
-      <c r="I16" s="22">
+      <c r="D16" s="22">
+        <v>2</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="R16" s="30"/>
+      <c r="R16" s="29"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
     </row>
     <row r="17" customHeight="1" spans="1:24">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R17" s="30"/>
+      <c r="R17" s="29"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
     </row>
     <row r="18" customHeight="1" spans="1:24">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>4</v>
       </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23">
-        <v>1</v>
-      </c>
-      <c r="H18" s="23">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R18" s="30"/>
+      <c r="R18" s="29"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
     </row>
     <row r="19" customHeight="1" spans="1:24">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="23">
-        <v>2</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="D19" s="22">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19" s="21">
         <f t="shared" ref="I19:I25" si="2">((G19+H19)*0.5)*D19*10*(1+(E19+F19)*0.25)</f>
         <v>20</v>
       </c>
-      <c r="R19" s="30"/>
+      <c r="R19" s="29"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="23">
-        <v>2</v>
-      </c>
-      <c r="E20" s="23">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="D20" s="22">
+        <v>2</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="24"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="23">
-        <v>2</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23">
-        <v>1</v>
-      </c>
-      <c r="H21" s="23">
-        <v>1</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="D21" s="22">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>4</v>
       </c>
-      <c r="E22" s="23">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23">
-        <v>2</v>
-      </c>
-      <c r="G22" s="23">
-        <v>1</v>
-      </c>
-      <c r="H22" s="23">
-        <v>1</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="E22" s="22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="24"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="22">
+      <c r="D23" s="22">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22">
+        <v>2</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="23">
-        <v>1</v>
-      </c>
-      <c r="E24" s="23">
-        <v>2</v>
-      </c>
-      <c r="F24" s="23">
-        <v>2</v>
-      </c>
-      <c r="G24" s="23">
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22">
+        <v>2</v>
+      </c>
+      <c r="F24" s="22">
+        <v>2</v>
+      </c>
+      <c r="G24" s="22">
         <v>0.6</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>0.6</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>0.5</v>
       </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
-        <v>1</v>
-      </c>
-      <c r="H25" s="23">
-        <v>1</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="E25" s="22">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>3</v>
       </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23">
-        <v>1</v>
-      </c>
-      <c r="I26" s="22">
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21">
         <f t="shared" ref="I26:I36" si="3">((G26+H26)*0.5)*D26*10*(1+(E26+F26)*0.25)</f>
         <v>30</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>8</v>
       </c>
-      <c r="E27" s="23">
-        <v>0</v>
-      </c>
-      <c r="F27" s="23">
-        <v>1</v>
-      </c>
-      <c r="G27" s="23">
-        <v>1</v>
-      </c>
-      <c r="H27" s="23">
-        <v>1</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="E27" s="22">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>6</v>
       </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>1</v>
-      </c>
-      <c r="G28" s="23">
-        <v>1</v>
-      </c>
-      <c r="H28" s="23">
-        <v>1</v>
-      </c>
-      <c r="I28" s="22">
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1</v>
+      </c>
+      <c r="H28" s="22">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <v>0.5</v>
       </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23">
-        <v>1</v>
-      </c>
-      <c r="H29" s="23">
-        <v>1</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1</v>
+      </c>
+      <c r="H29" s="22">
+        <v>1</v>
+      </c>
+      <c r="I29" s="21">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>6</v>
       </c>
-      <c r="E30" s="23">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23">
-        <v>1</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="E30" s="22">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1</v>
+      </c>
+      <c r="H30" s="22">
         <v>0.8</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>4</v>
       </c>
-      <c r="E31" s="23">
-        <v>1</v>
-      </c>
-      <c r="F31" s="23">
-        <v>2</v>
-      </c>
-      <c r="G31" s="23">
-        <v>1</v>
-      </c>
-      <c r="H31" s="23">
-        <v>1</v>
-      </c>
-      <c r="I31" s="22">
+      <c r="E31" s="22">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>2</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1</v>
+      </c>
+      <c r="H31" s="22">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="25"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <v>3</v>
       </c>
-      <c r="E32" s="23">
-        <v>2</v>
-      </c>
-      <c r="F32" s="23">
-        <v>2</v>
-      </c>
-      <c r="G32" s="23">
-        <v>1</v>
-      </c>
-      <c r="H32" s="23">
-        <v>1</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="E32" s="22">
+        <v>2</v>
+      </c>
+      <c r="F32" s="22">
+        <v>2</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22">
+        <v>1</v>
+      </c>
+      <c r="I32" s="21">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="23">
-        <v>2</v>
-      </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <v>1</v>
-      </c>
-      <c r="G33" s="23">
-        <v>1</v>
-      </c>
-      <c r="H33" s="23">
-        <v>1</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="D33" s="22">
+        <v>2</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22">
+        <v>1</v>
+      </c>
+      <c r="I33" s="21">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="25"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="23">
-        <v>1</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>1</v>
-      </c>
-      <c r="G34" s="23">
-        <v>1</v>
-      </c>
-      <c r="H34" s="23">
-        <v>1</v>
-      </c>
-      <c r="I34" s="22">
+      <c r="D34" s="22">
+        <v>1</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22">
+        <v>1</v>
+      </c>
+      <c r="H34" s="22">
+        <v>1</v>
+      </c>
+      <c r="I34" s="21">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>4.5</v>
       </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>1</v>
-      </c>
-      <c r="G35" s="23">
-        <v>1</v>
-      </c>
-      <c r="H35" s="23">
-        <v>1</v>
-      </c>
-      <c r="I35" s="22">
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
+      <c r="G35" s="22">
+        <v>1</v>
+      </c>
+      <c r="H35" s="22">
+        <v>1</v>
+      </c>
+      <c r="I35" s="21">
         <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <v>1.5</v>
       </c>
-      <c r="E36" s="23">
-        <v>2</v>
-      </c>
-      <c r="F36" s="23">
-        <v>2</v>
-      </c>
-      <c r="G36" s="23">
-        <v>1</v>
-      </c>
-      <c r="H36" s="23">
-        <v>1</v>
-      </c>
-      <c r="I36" s="22">
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="F36" s="22">
+        <v>2</v>
+      </c>
+      <c r="G36" s="22">
+        <v>1</v>
+      </c>
+      <c r="H36" s="22">
+        <v>1</v>
+      </c>
+      <c r="I36" s="21">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="22">
         <v>6</v>
       </c>
-      <c r="E37" s="23">
-        <v>1</v>
-      </c>
-      <c r="F37" s="23">
-        <v>2</v>
-      </c>
-      <c r="G37" s="23">
-        <v>1</v>
-      </c>
-      <c r="H37" s="23">
-        <v>1</v>
-      </c>
-      <c r="I37" s="22">
+      <c r="E37" s="22">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22">
+        <v>2</v>
+      </c>
+      <c r="G37" s="22">
+        <v>1</v>
+      </c>
+      <c r="H37" s="22">
+        <v>1</v>
+      </c>
+      <c r="I37" s="21">
         <f t="shared" ref="I37:I44" si="4">((G37+H37)*0.5)*D37*10*(1+(E37+F37)*0.25)</f>
         <v>105</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="25"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="23">
-        <v>2</v>
-      </c>
-      <c r="E38" s="23">
-        <v>1</v>
-      </c>
-      <c r="F38" s="23">
-        <v>1</v>
-      </c>
-      <c r="G38" s="23">
-        <v>1</v>
-      </c>
-      <c r="H38" s="23">
-        <v>1</v>
-      </c>
-      <c r="I38" s="22">
+      <c r="D38" s="22">
+        <v>2</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1</v>
+      </c>
+      <c r="G38" s="22">
+        <v>1</v>
+      </c>
+      <c r="H38" s="22">
+        <v>1</v>
+      </c>
+      <c r="I38" s="21">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="25"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="24"/>
+      <c r="B39" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="23">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23">
-        <v>0</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0</v>
-      </c>
-      <c r="G39" s="23">
-        <v>1</v>
-      </c>
-      <c r="H39" s="23">
-        <v>1</v>
-      </c>
-      <c r="I39" s="22">
+      <c r="D39" s="22">
+        <v>1</v>
+      </c>
+      <c r="E39" s="22">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22">
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <v>1</v>
+      </c>
+      <c r="H39" s="22">
+        <v>1</v>
+      </c>
+      <c r="I39" s="21">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="24"/>
+      <c r="B40" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>0.5</v>
       </c>
-      <c r="E40" s="23">
-        <v>0</v>
-      </c>
-      <c r="F40" s="23">
-        <v>0</v>
-      </c>
-      <c r="G40" s="23">
-        <v>1</v>
-      </c>
-      <c r="H40" s="23">
-        <v>1</v>
-      </c>
-      <c r="I40" s="22">
+      <c r="E40" s="22">
+        <v>0</v>
+      </c>
+      <c r="F40" s="22">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <v>1</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1</v>
+      </c>
+      <c r="I40" s="21">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="22">
         <v>6</v>
       </c>
-      <c r="E41" s="23">
-        <v>1</v>
-      </c>
-      <c r="F41" s="23">
-        <v>2</v>
-      </c>
-      <c r="G41" s="23">
-        <v>1</v>
-      </c>
-      <c r="H41" s="23">
-        <v>1</v>
-      </c>
-      <c r="I41" s="22">
+      <c r="E41" s="22">
+        <v>1</v>
+      </c>
+      <c r="F41" s="22">
+        <v>2</v>
+      </c>
+      <c r="G41" s="22">
+        <v>1</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1</v>
+      </c>
+      <c r="I41" s="21">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="25"/>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24">
         <v>10</v>
       </c>
-      <c r="E42" s="25">
-        <v>0</v>
-      </c>
-      <c r="F42" s="25">
-        <v>1</v>
-      </c>
-      <c r="G42" s="25">
-        <v>1</v>
-      </c>
-      <c r="H42" s="25">
-        <v>1</v>
-      </c>
-      <c r="I42" s="28">
+      <c r="E42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24">
+        <v>1</v>
+      </c>
+      <c r="G42" s="24">
+        <v>1</v>
+      </c>
+      <c r="H42" s="24">
+        <v>1</v>
+      </c>
+      <c r="I42" s="27">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="25"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="23" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="28"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="25"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="23" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="28"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="25"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="23" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="28"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="27"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="25"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="23" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="28"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="27"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="22">
         <v>4</v>
       </c>
-      <c r="E47" s="23">
-        <v>1</v>
-      </c>
-      <c r="F47" s="23">
-        <v>2</v>
-      </c>
-      <c r="G47" s="23">
-        <v>1</v>
-      </c>
-      <c r="H47" s="23">
-        <v>1</v>
-      </c>
-      <c r="I47" s="22">
+      <c r="E47" s="22">
+        <v>1</v>
+      </c>
+      <c r="F47" s="22">
+        <v>2</v>
+      </c>
+      <c r="G47" s="22">
+        <v>1</v>
+      </c>
+      <c r="H47" s="22">
+        <v>1</v>
+      </c>
+      <c r="I47" s="21">
         <f t="shared" ref="I47:I53" si="5">((G47+H47)*0.5)*D47*10*(1+(E47+F47)*0.25)</f>
         <v>70</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="25"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="23">
-        <v>2</v>
-      </c>
-      <c r="E48" s="23">
-        <v>1</v>
-      </c>
-      <c r="F48" s="23">
-        <v>1</v>
-      </c>
-      <c r="G48" s="23">
-        <v>1</v>
-      </c>
-      <c r="H48" s="23">
-        <v>1</v>
-      </c>
-      <c r="I48" s="22">
+      <c r="D48" s="22">
+        <v>2</v>
+      </c>
+      <c r="E48" s="22">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1</v>
+      </c>
+      <c r="G48" s="22">
+        <v>1</v>
+      </c>
+      <c r="H48" s="22">
+        <v>1</v>
+      </c>
+      <c r="I48" s="21">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="25"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="22">
         <v>0.5</v>
       </c>
-      <c r="E49" s="23">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" s="23">
-        <v>1</v>
-      </c>
-      <c r="H49" s="23">
-        <v>1</v>
-      </c>
-      <c r="I49" s="22">
+      <c r="E49" s="22">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22">
+        <v>1</v>
+      </c>
+      <c r="H49" s="22">
+        <v>1</v>
+      </c>
+      <c r="I49" s="21">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <v>8</v>
       </c>
-      <c r="E50" s="23">
-        <v>1</v>
-      </c>
-      <c r="F50" s="23">
-        <v>2</v>
-      </c>
-      <c r="G50" s="23">
-        <v>1</v>
-      </c>
-      <c r="H50" s="23">
-        <v>1</v>
-      </c>
-      <c r="I50" s="29">
+      <c r="E50" s="22">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22">
+        <v>2</v>
+      </c>
+      <c r="G50" s="22">
+        <v>1</v>
+      </c>
+      <c r="H50" s="22">
+        <v>1</v>
+      </c>
+      <c r="I50" s="28">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="25"/>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="24"/>
+      <c r="B51" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="23">
-        <v>2</v>
-      </c>
-      <c r="E51" s="23">
-        <v>1</v>
-      </c>
-      <c r="F51" s="23">
-        <v>1</v>
-      </c>
-      <c r="G51" s="23">
-        <v>1</v>
-      </c>
-      <c r="H51" s="23">
-        <v>1</v>
-      </c>
-      <c r="I51" s="22">
+      <c r="D51" s="22">
+        <v>2</v>
+      </c>
+      <c r="E51" s="22">
+        <v>1</v>
+      </c>
+      <c r="F51" s="22">
+        <v>1</v>
+      </c>
+      <c r="G51" s="22">
+        <v>1</v>
+      </c>
+      <c r="H51" s="22">
+        <v>1</v>
+      </c>
+      <c r="I51" s="21">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="25"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="23">
-        <v>1</v>
-      </c>
-      <c r="E52" s="23">
-        <v>2</v>
-      </c>
-      <c r="F52" s="23">
-        <v>2</v>
-      </c>
-      <c r="G52" s="23">
-        <v>1</v>
-      </c>
-      <c r="H52" s="23">
-        <v>1</v>
-      </c>
-      <c r="I52" s="22">
+      <c r="D52" s="22">
+        <v>1</v>
+      </c>
+      <c r="E52" s="22">
+        <v>2</v>
+      </c>
+      <c r="F52" s="22">
+        <v>2</v>
+      </c>
+      <c r="G52" s="22">
+        <v>1</v>
+      </c>
+      <c r="H52" s="22">
+        <v>1</v>
+      </c>
+      <c r="I52" s="21">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="25"/>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="23">
-        <v>2</v>
-      </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>1</v>
-      </c>
-      <c r="G53" s="23">
-        <v>1</v>
-      </c>
-      <c r="H53" s="23">
-        <v>1</v>
-      </c>
-      <c r="I53" s="22">
+      <c r="D53" s="22">
+        <v>2</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1</v>
+      </c>
+      <c r="G53" s="22">
+        <v>1</v>
+      </c>
+      <c r="H53" s="22">
+        <v>1</v>
+      </c>
+      <c r="I53" s="21">
         <f t="shared" ref="I53:I72" si="6">((G53+H53)*0.5)*D53*10*(1+(E53+F53)*0.25)</f>
         <v>25</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="23">
-        <v>1</v>
-      </c>
-      <c r="E54" s="23">
-        <v>2</v>
-      </c>
-      <c r="F54" s="23">
-        <v>2</v>
-      </c>
-      <c r="G54" s="23">
-        <v>1</v>
-      </c>
-      <c r="H54" s="23">
+      <c r="D54" s="22">
+        <v>1</v>
+      </c>
+      <c r="E54" s="22">
+        <v>2</v>
+      </c>
+      <c r="F54" s="22">
+        <v>2</v>
+      </c>
+      <c r="G54" s="22">
+        <v>1</v>
+      </c>
+      <c r="H54" s="22">
         <v>0.8</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="21">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:11">
-      <c r="A55" s="25"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="23">
-        <v>2</v>
-      </c>
-      <c r="E55" s="23">
-        <v>1</v>
-      </c>
-      <c r="F55" s="23">
-        <v>1</v>
-      </c>
-      <c r="G55" s="23">
-        <v>1</v>
-      </c>
-      <c r="H55" s="23">
-        <v>1</v>
-      </c>
-      <c r="I55" s="22">
+      <c r="D55" s="22">
+        <v>2</v>
+      </c>
+      <c r="E55" s="22">
+        <v>1</v>
+      </c>
+      <c r="F55" s="22">
+        <v>1</v>
+      </c>
+      <c r="G55" s="22">
+        <v>1</v>
+      </c>
+      <c r="H55" s="22">
+        <v>1</v>
+      </c>
+      <c r="I55" s="21">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
@@ -3510,31 +3510,31 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:12">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="23">
-        <v>1</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="23">
-        <v>1</v>
-      </c>
-      <c r="H56" s="23">
-        <v>1</v>
-      </c>
-      <c r="I56" s="22">
+      <c r="D56" s="22">
+        <v>1</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>1</v>
+      </c>
+      <c r="H56" s="22">
+        <v>1</v>
+      </c>
+      <c r="I56" s="21">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3546,1371 +3546,1371 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="25"/>
-      <c r="B57" s="22" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="23">
-        <v>2</v>
-      </c>
-      <c r="E57" s="23">
-        <v>2</v>
-      </c>
-      <c r="F57" s="23">
-        <v>2</v>
-      </c>
-      <c r="G57" s="23">
-        <v>1</v>
-      </c>
-      <c r="H57" s="23">
-        <v>1</v>
-      </c>
-      <c r="I57" s="22">
+      <c r="D57" s="22">
+        <v>2</v>
+      </c>
+      <c r="E57" s="22">
+        <v>2</v>
+      </c>
+      <c r="F57" s="22">
+        <v>2</v>
+      </c>
+      <c r="G57" s="22">
+        <v>1</v>
+      </c>
+      <c r="H57" s="22">
+        <v>1</v>
+      </c>
+      <c r="I57" s="21">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="25"/>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="22">
         <v>3</v>
       </c>
-      <c r="E58" s="23">
-        <v>1</v>
-      </c>
-      <c r="F58" s="23">
-        <v>1</v>
-      </c>
-      <c r="G58" s="23">
-        <v>1</v>
-      </c>
-      <c r="H58" s="23">
-        <v>1</v>
-      </c>
-      <c r="I58" s="22">
+      <c r="E58" s="22">
+        <v>1</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1</v>
+      </c>
+      <c r="G58" s="22">
+        <v>1</v>
+      </c>
+      <c r="H58" s="22">
+        <v>1</v>
+      </c>
+      <c r="I58" s="21">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="25"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="23">
-        <v>1</v>
-      </c>
-      <c r="E59" s="23">
-        <v>0</v>
-      </c>
-      <c r="F59" s="23">
-        <v>1</v>
-      </c>
-      <c r="G59" s="23">
-        <v>1</v>
-      </c>
-      <c r="H59" s="23">
-        <v>1</v>
-      </c>
-      <c r="I59" s="22">
+      <c r="D59" s="22">
+        <v>1</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0</v>
+      </c>
+      <c r="F59" s="22">
+        <v>1</v>
+      </c>
+      <c r="G59" s="22">
+        <v>1</v>
+      </c>
+      <c r="H59" s="22">
+        <v>1</v>
+      </c>
+      <c r="I59" s="21">
         <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="25"/>
-      <c r="B60" s="22" t="s">
+      <c r="A60" s="24"/>
+      <c r="B60" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="22">
         <v>3</v>
       </c>
-      <c r="E60" s="23">
-        <v>1</v>
-      </c>
-      <c r="F60" s="23">
-        <v>1</v>
-      </c>
-      <c r="G60" s="23">
-        <v>1</v>
-      </c>
-      <c r="H60" s="23">
-        <v>1</v>
-      </c>
-      <c r="I60" s="22">
+      <c r="E60" s="22">
+        <v>1</v>
+      </c>
+      <c r="F60" s="22">
+        <v>1</v>
+      </c>
+      <c r="G60" s="22">
+        <v>1</v>
+      </c>
+      <c r="H60" s="22">
+        <v>1</v>
+      </c>
+      <c r="I60" s="21">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="24"/>
+      <c r="B61" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="23">
-        <v>2</v>
-      </c>
-      <c r="E61" s="23">
-        <v>1</v>
-      </c>
-      <c r="F61" s="23">
-        <v>2</v>
-      </c>
-      <c r="G61" s="23">
-        <v>1</v>
-      </c>
-      <c r="H61" s="23">
-        <v>1</v>
-      </c>
-      <c r="I61" s="22">
+      <c r="D61" s="22">
+        <v>2</v>
+      </c>
+      <c r="E61" s="22">
+        <v>1</v>
+      </c>
+      <c r="F61" s="22">
+        <v>2</v>
+      </c>
+      <c r="G61" s="22">
+        <v>1</v>
+      </c>
+      <c r="H61" s="22">
+        <v>1</v>
+      </c>
+      <c r="I61" s="21">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="25"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="24"/>
+      <c r="B62" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="23">
-        <v>1</v>
-      </c>
-      <c r="E62" s="23">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
-        <v>0</v>
-      </c>
-      <c r="G62" s="23">
-        <v>1</v>
-      </c>
-      <c r="H62" s="23">
-        <v>1</v>
-      </c>
-      <c r="I62" s="22">
+      <c r="D62" s="22">
+        <v>1</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <v>0</v>
+      </c>
+      <c r="G62" s="22">
+        <v>1</v>
+      </c>
+      <c r="H62" s="22">
+        <v>1</v>
+      </c>
+      <c r="I62" s="21">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="23">
-        <v>2</v>
-      </c>
-      <c r="E63" s="23">
-        <v>0</v>
-      </c>
-      <c r="F63" s="23">
-        <v>1</v>
-      </c>
-      <c r="G63" s="23">
-        <v>1</v>
-      </c>
-      <c r="H63" s="23">
-        <v>1</v>
-      </c>
-      <c r="I63" s="22">
+      <c r="D63" s="22">
+        <v>2</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
+        <v>1</v>
+      </c>
+      <c r="G63" s="22">
+        <v>1</v>
+      </c>
+      <c r="H63" s="22">
+        <v>1</v>
+      </c>
+      <c r="I63" s="21">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="24"/>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="22">
         <v>8</v>
       </c>
-      <c r="E64" s="23">
-        <v>1</v>
-      </c>
-      <c r="F64" s="23">
-        <v>2</v>
-      </c>
-      <c r="G64" s="23">
-        <v>1</v>
-      </c>
-      <c r="H64" s="23">
-        <v>1</v>
-      </c>
-      <c r="I64" s="22">
+      <c r="E64" s="22">
+        <v>1</v>
+      </c>
+      <c r="F64" s="22">
+        <v>2</v>
+      </c>
+      <c r="G64" s="22">
+        <v>1</v>
+      </c>
+      <c r="H64" s="22">
+        <v>1</v>
+      </c>
+      <c r="I64" s="21">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:19">
-      <c r="A65" s="24"/>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="23"/>
+      <c r="B65" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="23">
-        <v>2</v>
-      </c>
-      <c r="E65" s="23">
-        <v>1</v>
-      </c>
-      <c r="F65" s="23">
-        <v>2</v>
-      </c>
-      <c r="G65" s="23">
-        <v>1</v>
-      </c>
-      <c r="H65" s="23">
-        <v>1</v>
-      </c>
-      <c r="I65" s="22">
+      <c r="D65" s="22">
+        <v>2</v>
+      </c>
+      <c r="E65" s="22">
+        <v>1</v>
+      </c>
+      <c r="F65" s="22">
+        <v>2</v>
+      </c>
+      <c r="G65" s="22">
+        <v>1</v>
+      </c>
+      <c r="H65" s="22">
+        <v>1</v>
+      </c>
+      <c r="I65" s="21">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="K65" s="21"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="22"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="21"/>
     </row>
     <row r="66" customHeight="1" spans="1:19">
-      <c r="A66" s="24"/>
-      <c r="B66" s="22" t="s">
+      <c r="A66" s="23"/>
+      <c r="B66" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="23">
-        <v>2</v>
-      </c>
-      <c r="E66" s="23">
-        <v>0</v>
-      </c>
-      <c r="F66" s="23">
-        <v>1</v>
-      </c>
-      <c r="G66" s="23">
-        <v>1</v>
-      </c>
-      <c r="H66" s="23">
-        <v>1</v>
-      </c>
-      <c r="I66" s="22">
+      <c r="D66" s="22">
+        <v>2</v>
+      </c>
+      <c r="E66" s="22">
+        <v>0</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1</v>
+      </c>
+      <c r="G66" s="22">
+        <v>1</v>
+      </c>
+      <c r="H66" s="22">
+        <v>1</v>
+      </c>
+      <c r="I66" s="21">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="22"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="21"/>
     </row>
     <row r="67" customHeight="1" spans="1:19">
-      <c r="A67" s="24"/>
-      <c r="B67" s="22" t="s">
+      <c r="A67" s="23"/>
+      <c r="B67" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="22">
         <v>4</v>
       </c>
-      <c r="E67" s="23">
-        <v>0</v>
-      </c>
-      <c r="F67" s="23">
-        <v>1</v>
-      </c>
-      <c r="G67" s="23">
-        <v>1</v>
-      </c>
-      <c r="H67" s="23">
-        <v>1</v>
-      </c>
-      <c r="I67" s="22">
+      <c r="E67" s="22">
+        <v>0</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1</v>
+      </c>
+      <c r="G67" s="22">
+        <v>1</v>
+      </c>
+      <c r="H67" s="22">
+        <v>1</v>
+      </c>
+      <c r="I67" s="21">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="K67" s="21"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="22"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="21"/>
     </row>
     <row r="68" customHeight="1" spans="1:19">
-      <c r="A68" s="24"/>
-      <c r="B68" s="22" t="s">
+      <c r="A68" s="23"/>
+      <c r="B68" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="22">
         <v>6</v>
       </c>
-      <c r="E68" s="23">
-        <v>1</v>
-      </c>
-      <c r="F68" s="23">
-        <v>1</v>
-      </c>
-      <c r="G68" s="23">
-        <v>1</v>
-      </c>
-      <c r="H68" s="23">
-        <v>1</v>
-      </c>
-      <c r="I68" s="22">
+      <c r="E68" s="22">
+        <v>1</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1</v>
+      </c>
+      <c r="G68" s="22">
+        <v>1</v>
+      </c>
+      <c r="H68" s="22">
+        <v>1</v>
+      </c>
+      <c r="I68" s="21">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="K68" s="21"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="22"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="21"/>
     </row>
     <row r="69" customHeight="1" spans="1:19">
-      <c r="A69" s="24"/>
-      <c r="B69" s="22" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="22">
         <v>4</v>
       </c>
-      <c r="E69" s="23">
-        <v>1</v>
-      </c>
-      <c r="F69" s="23">
-        <v>1</v>
-      </c>
-      <c r="G69" s="23">
-        <v>1</v>
-      </c>
-      <c r="H69" s="23">
-        <v>1</v>
-      </c>
-      <c r="I69" s="22">
+      <c r="E69" s="22">
+        <v>1</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1</v>
+      </c>
+      <c r="G69" s="22">
+        <v>1</v>
+      </c>
+      <c r="H69" s="22">
+        <v>1</v>
+      </c>
+      <c r="I69" s="21">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K69" s="21"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="22"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="21"/>
     </row>
     <row r="70" customHeight="1" spans="1:19">
-      <c r="A70" s="24"/>
-      <c r="B70" s="22" t="s">
+      <c r="A70" s="23"/>
+      <c r="B70" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="23">
-        <v>1</v>
-      </c>
-      <c r="E70" s="23">
-        <v>0</v>
-      </c>
-      <c r="F70" s="23">
-        <v>0</v>
-      </c>
-      <c r="G70" s="23">
-        <v>1</v>
-      </c>
-      <c r="H70" s="23">
-        <v>1</v>
-      </c>
-      <c r="I70" s="22">
+      <c r="D70" s="22">
+        <v>1</v>
+      </c>
+      <c r="E70" s="22">
+        <v>0</v>
+      </c>
+      <c r="F70" s="22">
+        <v>0</v>
+      </c>
+      <c r="G70" s="22">
+        <v>1</v>
+      </c>
+      <c r="H70" s="22">
+        <v>1</v>
+      </c>
+      <c r="I70" s="21">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="K70" s="21"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="22"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="21"/>
     </row>
     <row r="71" customHeight="1" spans="1:19">
-      <c r="A71" s="24"/>
-      <c r="B71" s="22" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="22">
         <v>4</v>
       </c>
-      <c r="E71" s="23">
-        <v>1</v>
-      </c>
-      <c r="F71" s="23">
-        <v>1</v>
-      </c>
-      <c r="G71" s="23">
-        <v>1</v>
-      </c>
-      <c r="H71" s="23">
-        <v>1</v>
-      </c>
-      <c r="I71" s="22">
+      <c r="E71" s="22">
+        <v>1</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1</v>
+      </c>
+      <c r="G71" s="22">
+        <v>1</v>
+      </c>
+      <c r="H71" s="22">
+        <v>1</v>
+      </c>
+      <c r="I71" s="21">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K71" s="21"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="22"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="21"/>
     </row>
     <row r="72" customHeight="1" spans="1:19">
-      <c r="A72" s="24"/>
-      <c r="B72" s="22" t="s">
+      <c r="A72" s="23"/>
+      <c r="B72" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="22">
         <v>3</v>
       </c>
-      <c r="E72" s="23">
-        <v>2</v>
-      </c>
-      <c r="F72" s="23">
-        <v>2</v>
-      </c>
-      <c r="G72" s="23">
-        <v>1</v>
-      </c>
-      <c r="H72" s="23">
-        <v>1</v>
-      </c>
-      <c r="I72" s="22">
+      <c r="E72" s="22">
+        <v>2</v>
+      </c>
+      <c r="F72" s="22">
+        <v>2</v>
+      </c>
+      <c r="G72" s="22">
+        <v>1</v>
+      </c>
+      <c r="H72" s="22">
+        <v>1</v>
+      </c>
+      <c r="I72" s="21">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K72" s="21"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="22"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="21"/>
     </row>
     <row r="73" customHeight="1" spans="1:19">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="22">
         <v>4</v>
       </c>
-      <c r="E73" s="23">
-        <v>1</v>
-      </c>
-      <c r="F73" s="23">
-        <v>1</v>
-      </c>
-      <c r="G73" s="23">
-        <v>1</v>
-      </c>
-      <c r="H73" s="23">
-        <v>1</v>
-      </c>
-      <c r="I73" s="22">
+      <c r="E73" s="22">
+        <v>1</v>
+      </c>
+      <c r="F73" s="22">
+        <v>1</v>
+      </c>
+      <c r="G73" s="22">
+        <v>1</v>
+      </c>
+      <c r="H73" s="22">
+        <v>1</v>
+      </c>
+      <c r="I73" s="21">
         <f t="shared" ref="I73:I84" si="7">((G73+H73)*0.5)*D73*10*(1+(E73+F73)*0.25)</f>
         <v>60</v>
       </c>
-      <c r="K73" s="21"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="22"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="21"/>
     </row>
     <row r="74" customHeight="1" spans="1:19">
-      <c r="A74" s="25"/>
-      <c r="B74" s="22" t="s">
+      <c r="A74" s="24"/>
+      <c r="B74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="22">
         <v>3</v>
       </c>
-      <c r="E74" s="23">
-        <v>0</v>
-      </c>
-      <c r="F74" s="23">
-        <v>1</v>
-      </c>
-      <c r="G74" s="23">
-        <v>1</v>
-      </c>
-      <c r="H74" s="23">
-        <v>1</v>
-      </c>
-      <c r="I74" s="22">
+      <c r="E74" s="22">
+        <v>0</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1</v>
+      </c>
+      <c r="G74" s="22">
+        <v>1</v>
+      </c>
+      <c r="H74" s="22">
+        <v>1</v>
+      </c>
+      <c r="I74" s="21">
         <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
-      <c r="S74" s="22"/>
+      <c r="S74" s="21"/>
     </row>
     <row r="75" customHeight="1" spans="1:9">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22" t="s">
+      <c r="A75" s="24"/>
+      <c r="B75" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="22">
         <v>10</v>
       </c>
-      <c r="E75" s="23">
-        <v>1</v>
-      </c>
-      <c r="F75" s="23">
-        <v>2</v>
-      </c>
-      <c r="G75" s="23">
-        <v>1</v>
-      </c>
-      <c r="H75" s="23">
-        <v>1</v>
-      </c>
-      <c r="I75" s="22">
+      <c r="E75" s="22">
+        <v>1</v>
+      </c>
+      <c r="F75" s="22">
+        <v>2</v>
+      </c>
+      <c r="G75" s="22">
+        <v>1</v>
+      </c>
+      <c r="H75" s="22">
+        <v>1</v>
+      </c>
+      <c r="I75" s="21">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:9">
-      <c r="A76" s="25"/>
-      <c r="B76" s="22" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="23">
-        <v>1</v>
-      </c>
-      <c r="E76" s="23">
-        <v>0</v>
-      </c>
-      <c r="F76" s="23">
-        <v>1</v>
-      </c>
-      <c r="G76" s="23">
-        <v>1</v>
-      </c>
-      <c r="H76" s="23">
-        <v>1</v>
-      </c>
-      <c r="I76" s="22">
+      <c r="D76" s="22">
+        <v>1</v>
+      </c>
+      <c r="E76" s="22">
+        <v>0</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1</v>
+      </c>
+      <c r="G76" s="22">
+        <v>1</v>
+      </c>
+      <c r="H76" s="22">
+        <v>1</v>
+      </c>
+      <c r="I76" s="21">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:9">
-      <c r="A77" s="25"/>
-      <c r="B77" s="22" t="s">
+      <c r="A77" s="24"/>
+      <c r="B77" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="22">
         <v>1.5</v>
       </c>
-      <c r="E77" s="23">
-        <v>1</v>
-      </c>
-      <c r="F77" s="23">
-        <v>2</v>
-      </c>
-      <c r="G77" s="23">
-        <v>1</v>
-      </c>
-      <c r="H77" s="23">
-        <v>1</v>
-      </c>
-      <c r="I77" s="22">
+      <c r="E77" s="22">
+        <v>1</v>
+      </c>
+      <c r="F77" s="22">
+        <v>2</v>
+      </c>
+      <c r="G77" s="22">
+        <v>1</v>
+      </c>
+      <c r="H77" s="22">
+        <v>1</v>
+      </c>
+      <c r="I77" s="21">
         <f t="shared" si="7"/>
         <v>26.25</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:9">
-      <c r="A78" s="25"/>
-      <c r="B78" s="22" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="23">
-        <v>1</v>
-      </c>
-      <c r="E78" s="23">
-        <v>0</v>
-      </c>
-      <c r="F78" s="23">
-        <v>1</v>
-      </c>
-      <c r="G78" s="23">
-        <v>1</v>
-      </c>
-      <c r="H78" s="23">
-        <v>1</v>
-      </c>
-      <c r="I78" s="22">
+      <c r="D78" s="22">
+        <v>1</v>
+      </c>
+      <c r="E78" s="22">
+        <v>0</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1</v>
+      </c>
+      <c r="G78" s="22">
+        <v>1</v>
+      </c>
+      <c r="H78" s="22">
+        <v>1</v>
+      </c>
+      <c r="I78" s="21">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:9">
-      <c r="A79" s="25"/>
-      <c r="B79" s="22" t="s">
+      <c r="A79" s="24"/>
+      <c r="B79" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="22">
         <v>4</v>
       </c>
-      <c r="E79" s="23">
-        <v>2</v>
-      </c>
-      <c r="F79" s="23">
-        <v>2</v>
-      </c>
-      <c r="G79" s="23">
-        <v>1</v>
-      </c>
-      <c r="H79" s="23">
-        <v>1</v>
-      </c>
-      <c r="I79" s="22">
+      <c r="E79" s="22">
+        <v>2</v>
+      </c>
+      <c r="F79" s="22">
+        <v>2</v>
+      </c>
+      <c r="G79" s="22">
+        <v>1</v>
+      </c>
+      <c r="H79" s="22">
+        <v>1</v>
+      </c>
+      <c r="I79" s="21">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="8">
         <v>3</v>
       </c>
-      <c r="E80" s="9">
-        <v>1</v>
-      </c>
-      <c r="F80" s="9">
-        <v>1</v>
-      </c>
-      <c r="G80" s="9">
-        <v>1</v>
-      </c>
-      <c r="H80" s="9">
-        <v>1</v>
-      </c>
-      <c r="I80" s="22">
+      <c r="E80" s="8">
+        <v>1</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1</v>
+      </c>
+      <c r="H80" s="8">
+        <v>1</v>
+      </c>
+      <c r="I80" s="21">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:9">
-      <c r="A81" s="21"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="20"/>
+      <c r="B81" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="9">
-        <v>2</v>
-      </c>
-      <c r="E81" s="9">
-        <v>1</v>
-      </c>
-      <c r="F81" s="9">
-        <v>2</v>
-      </c>
-      <c r="G81" s="9">
-        <v>1</v>
-      </c>
-      <c r="H81" s="9">
-        <v>1</v>
-      </c>
-      <c r="I81" s="22">
+      <c r="D81" s="8">
+        <v>2</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8">
+        <v>2</v>
+      </c>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
+      <c r="H81" s="8">
+        <v>1</v>
+      </c>
+      <c r="I81" s="21">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:9">
-      <c r="A82" s="21"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="20"/>
+      <c r="B82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D82" s="9">
-        <v>1</v>
-      </c>
-      <c r="E82" s="9">
-        <v>1</v>
-      </c>
-      <c r="F82" s="9">
-        <v>1</v>
-      </c>
-      <c r="G82" s="9">
-        <v>1</v>
-      </c>
-      <c r="H82" s="9">
-        <v>1</v>
-      </c>
-      <c r="I82" s="22">
+      <c r="D82" s="8">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1</v>
+      </c>
+      <c r="G82" s="8">
+        <v>1</v>
+      </c>
+      <c r="H82" s="8">
+        <v>1</v>
+      </c>
+      <c r="I82" s="21">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:9">
-      <c r="A83" s="21"/>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="20"/>
+      <c r="B83" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="9">
-        <v>1</v>
-      </c>
-      <c r="E83" s="9">
-        <v>1</v>
-      </c>
-      <c r="F83" s="9">
-        <v>2</v>
-      </c>
-      <c r="G83" s="9">
-        <v>1</v>
-      </c>
-      <c r="H83" s="9">
-        <v>1</v>
-      </c>
-      <c r="I83" s="22">
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8">
+        <v>1</v>
+      </c>
+      <c r="F83" s="8">
+        <v>2</v>
+      </c>
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1</v>
+      </c>
+      <c r="I83" s="21">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:9">
-      <c r="A84" s="21"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="20"/>
+      <c r="B84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="19">
         <v>4</v>
       </c>
-      <c r="E84" s="20">
-        <v>1</v>
-      </c>
-      <c r="F84" s="20">
-        <v>1</v>
-      </c>
-      <c r="G84" s="20">
-        <v>1</v>
-      </c>
-      <c r="H84" s="20">
-        <v>1</v>
-      </c>
-      <c r="I84" s="27">
+      <c r="E84" s="19">
+        <v>1</v>
+      </c>
+      <c r="F84" s="19">
+        <v>1</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1</v>
+      </c>
+      <c r="H84" s="19">
+        <v>1</v>
+      </c>
+      <c r="I84" s="26">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
-      <c r="A85" s="21"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="9" t="s">
+      <c r="A85" s="20"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20">
-        <v>2</v>
-      </c>
-      <c r="G85" s="20">
-        <v>2</v>
-      </c>
-      <c r="H85" s="20">
-        <v>2</v>
-      </c>
-      <c r="I85" s="27"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19">
+        <v>2</v>
+      </c>
+      <c r="G85" s="19">
+        <v>2</v>
+      </c>
+      <c r="H85" s="19">
+        <v>2</v>
+      </c>
+      <c r="I85" s="26"/>
     </row>
     <row r="86" customHeight="1" spans="1:9">
-      <c r="A86" s="21"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="9" t="s">
+      <c r="A86" s="20"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20">
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19">
         <v>3</v>
       </c>
-      <c r="G86" s="20">
+      <c r="G86" s="19">
         <v>3</v>
       </c>
-      <c r="H86" s="20">
+      <c r="H86" s="19">
         <v>3</v>
       </c>
-      <c r="I86" s="27"/>
+      <c r="I86" s="26"/>
     </row>
     <row r="87" customHeight="1" spans="1:9">
-      <c r="A87" s="21"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="9" t="s">
+      <c r="A87" s="20"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="27"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="26"/>
     </row>
     <row r="88" customHeight="1" spans="1:9">
-      <c r="A88" s="21"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="9" t="s">
+      <c r="A88" s="20"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="27"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="26"/>
     </row>
     <row r="89" customHeight="1" spans="1:9">
-      <c r="A89" s="21"/>
-      <c r="B89" s="8" t="s">
+      <c r="A89" s="20"/>
+      <c r="B89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="9">
-        <v>2</v>
-      </c>
-      <c r="E89" s="9">
-        <v>1</v>
-      </c>
-      <c r="F89" s="9">
-        <v>2</v>
-      </c>
-      <c r="G89" s="9">
-        <v>1</v>
-      </c>
-      <c r="H89" s="9">
-        <v>1</v>
-      </c>
-      <c r="I89" s="22">
+      <c r="D89" s="8">
+        <v>2</v>
+      </c>
+      <c r="E89" s="8">
+        <v>1</v>
+      </c>
+      <c r="F89" s="8">
+        <v>2</v>
+      </c>
+      <c r="G89" s="8">
+        <v>1</v>
+      </c>
+      <c r="H89" s="8">
+        <v>1</v>
+      </c>
+      <c r="I89" s="21">
         <f>((G89+H89)*0.5)*D89*10*(1+(E89+F89)*0.25)</f>
         <v>35</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
-      <c r="A90" s="21"/>
-      <c r="B90" s="8" t="s">
+      <c r="A90" s="20"/>
+      <c r="B90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="9">
-        <v>1</v>
-      </c>
-      <c r="E90" s="9">
-        <v>1</v>
-      </c>
-      <c r="F90" s="9">
-        <v>2</v>
-      </c>
-      <c r="G90" s="9">
-        <v>1</v>
-      </c>
-      <c r="H90" s="9">
-        <v>1</v>
-      </c>
-      <c r="I90" s="22">
+      <c r="D90" s="8">
+        <v>1</v>
+      </c>
+      <c r="E90" s="8">
+        <v>1</v>
+      </c>
+      <c r="F90" s="8">
+        <v>2</v>
+      </c>
+      <c r="G90" s="8">
+        <v>1</v>
+      </c>
+      <c r="H90" s="8">
+        <v>1</v>
+      </c>
+      <c r="I90" s="21">
         <f>((G90+H90)*0.5)*D90*10*(1+(E90+F90)*0.25)</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
-      <c r="A91" s="21"/>
-      <c r="B91" s="8" t="s">
+      <c r="A91" s="20"/>
+      <c r="B91" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="9">
-        <v>1</v>
-      </c>
-      <c r="E91" s="9">
-        <v>1</v>
-      </c>
-      <c r="F91" s="9">
-        <v>1</v>
-      </c>
-      <c r="G91" s="9">
-        <v>1</v>
-      </c>
-      <c r="H91" s="9">
-        <v>1</v>
-      </c>
-      <c r="I91" s="22">
+      <c r="D91" s="8">
+        <v>1</v>
+      </c>
+      <c r="E91" s="8">
+        <v>1</v>
+      </c>
+      <c r="F91" s="8">
+        <v>1</v>
+      </c>
+      <c r="G91" s="8">
+        <v>1</v>
+      </c>
+      <c r="H91" s="8">
+        <v>1</v>
+      </c>
+      <c r="I91" s="21">
         <f>((G91+H91)*0.5)*D91*10*(1+(E91+F91)*0.25)</f>
         <v>15</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D92" s="9">
-        <v>1</v>
-      </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>1</v>
-      </c>
-      <c r="G92" s="9">
-        <v>1</v>
-      </c>
-      <c r="H92" s="9">
-        <v>1</v>
-      </c>
-      <c r="I92" s="22">
+      <c r="D92" s="8">
+        <v>1</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0</v>
+      </c>
+      <c r="F92" s="8">
+        <v>1</v>
+      </c>
+      <c r="G92" s="8">
+        <v>1</v>
+      </c>
+      <c r="H92" s="8">
+        <v>1</v>
+      </c>
+      <c r="I92" s="21">
         <f t="shared" ref="I92:I105" si="8">((G92+H92)*0.5)*D92*10*(1+(E92+F92)*0.25)</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
-      <c r="A93" s="20"/>
-      <c r="B93" s="8" t="s">
+      <c r="A93" s="19"/>
+      <c r="B93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D93" s="9">
-        <v>1</v>
-      </c>
-      <c r="E93" s="9">
-        <v>1</v>
-      </c>
-      <c r="F93" s="9">
-        <v>2</v>
-      </c>
-      <c r="G93" s="9">
-        <v>1</v>
-      </c>
-      <c r="H93" s="9">
-        <v>1</v>
-      </c>
-      <c r="I93" s="22">
+      <c r="D93" s="8">
+        <v>1</v>
+      </c>
+      <c r="E93" s="8">
+        <v>1</v>
+      </c>
+      <c r="F93" s="8">
+        <v>2</v>
+      </c>
+      <c r="G93" s="8">
+        <v>1</v>
+      </c>
+      <c r="H93" s="8">
+        <v>1</v>
+      </c>
+      <c r="I93" s="21">
         <f t="shared" si="8"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
-      <c r="A94" s="20"/>
-      <c r="B94" s="8" t="s">
+      <c r="A94" s="19"/>
+      <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="9">
-        <v>2</v>
-      </c>
-      <c r="E94" s="9">
-        <v>1</v>
-      </c>
-      <c r="F94" s="9">
-        <v>1</v>
-      </c>
-      <c r="G94" s="9">
-        <v>1</v>
-      </c>
-      <c r="H94" s="9">
-        <v>1</v>
-      </c>
-      <c r="I94" s="22">
+      <c r="D94" s="8">
+        <v>2</v>
+      </c>
+      <c r="E94" s="8">
+        <v>1</v>
+      </c>
+      <c r="F94" s="8">
+        <v>1</v>
+      </c>
+      <c r="G94" s="8">
+        <v>1</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1</v>
+      </c>
+      <c r="I94" s="21">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:9">
-      <c r="A95" s="20"/>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="19"/>
+      <c r="B95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D95" s="9">
-        <v>1</v>
-      </c>
-      <c r="E95" s="9">
-        <v>0</v>
-      </c>
-      <c r="F95" s="9">
-        <v>0</v>
-      </c>
-      <c r="G95" s="9">
-        <v>1</v>
-      </c>
-      <c r="H95" s="9">
-        <v>1</v>
-      </c>
-      <c r="I95" s="22">
+      <c r="D95" s="8">
+        <v>1</v>
+      </c>
+      <c r="E95" s="8">
+        <v>0</v>
+      </c>
+      <c r="F95" s="8">
+        <v>0</v>
+      </c>
+      <c r="G95" s="8">
+        <v>1</v>
+      </c>
+      <c r="H95" s="8">
+        <v>1</v>
+      </c>
+      <c r="I95" s="21">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:9">
-      <c r="A96" s="20"/>
-      <c r="B96" s="8" t="s">
+      <c r="A96" s="19"/>
+      <c r="B96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="9">
-        <v>1</v>
-      </c>
-      <c r="E96" s="9">
-        <v>1</v>
-      </c>
-      <c r="F96" s="9">
-        <v>1</v>
-      </c>
-      <c r="G96" s="9">
-        <v>1</v>
-      </c>
-      <c r="H96" s="9">
-        <v>1</v>
-      </c>
-      <c r="I96" s="22">
+      <c r="D96" s="8">
+        <v>1</v>
+      </c>
+      <c r="E96" s="8">
+        <v>1</v>
+      </c>
+      <c r="F96" s="8">
+        <v>1</v>
+      </c>
+      <c r="G96" s="8">
+        <v>1</v>
+      </c>
+      <c r="H96" s="8">
+        <v>1</v>
+      </c>
+      <c r="I96" s="21">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:9">
-      <c r="A97" s="20"/>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="19"/>
+      <c r="B97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D97" s="9">
-        <v>2</v>
-      </c>
-      <c r="E97" s="9">
-        <v>1</v>
-      </c>
-      <c r="F97" s="9">
-        <v>1</v>
-      </c>
-      <c r="G97" s="9">
-        <v>1</v>
-      </c>
-      <c r="H97" s="9">
-        <v>1</v>
-      </c>
-      <c r="I97" s="22">
+      <c r="D97" s="8">
+        <v>2</v>
+      </c>
+      <c r="E97" s="8">
+        <v>1</v>
+      </c>
+      <c r="F97" s="8">
+        <v>1</v>
+      </c>
+      <c r="G97" s="8">
+        <v>1</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1</v>
+      </c>
+      <c r="I97" s="21">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:9">
-      <c r="A98" s="20"/>
-      <c r="B98" s="8" t="s">
+      <c r="A98" s="19"/>
+      <c r="B98" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="8">
         <v>9</v>
       </c>
-      <c r="E98" s="9">
-        <v>1</v>
-      </c>
-      <c r="F98" s="9">
-        <v>1</v>
-      </c>
-      <c r="G98" s="9">
-        <v>1</v>
-      </c>
-      <c r="H98" s="9">
-        <v>1</v>
-      </c>
-      <c r="I98" s="22">
+      <c r="E98" s="8">
+        <v>1</v>
+      </c>
+      <c r="F98" s="8">
+        <v>1</v>
+      </c>
+      <c r="G98" s="8">
+        <v>1</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1</v>
+      </c>
+      <c r="I98" s="21">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:9">
-      <c r="A99" s="20"/>
-      <c r="B99" s="8" t="s">
+      <c r="A99" s="19"/>
+      <c r="B99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D99" s="9">
-        <v>2</v>
-      </c>
-      <c r="E99" s="9">
-        <v>1</v>
-      </c>
-      <c r="F99" s="9">
-        <v>1</v>
-      </c>
-      <c r="G99" s="9">
-        <v>1</v>
-      </c>
-      <c r="H99" s="9">
-        <v>1</v>
-      </c>
-      <c r="I99" s="22">
+      <c r="D99" s="8">
+        <v>2</v>
+      </c>
+      <c r="E99" s="8">
+        <v>1</v>
+      </c>
+      <c r="F99" s="8">
+        <v>1</v>
+      </c>
+      <c r="G99" s="8">
+        <v>1</v>
+      </c>
+      <c r="H99" s="8">
+        <v>1</v>
+      </c>
+      <c r="I99" s="21">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:9">
-      <c r="A100" s="20"/>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="19"/>
+      <c r="B100" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="9">
-        <v>1</v>
-      </c>
-      <c r="E100" s="9">
-        <v>1</v>
-      </c>
-      <c r="F100" s="9">
-        <v>1</v>
-      </c>
-      <c r="G100" s="9">
-        <v>1</v>
-      </c>
-      <c r="H100" s="9">
-        <v>1</v>
-      </c>
-      <c r="I100" s="22">
+      <c r="D100" s="8">
+        <v>1</v>
+      </c>
+      <c r="E100" s="8">
+        <v>1</v>
+      </c>
+      <c r="F100" s="8">
+        <v>1</v>
+      </c>
+      <c r="G100" s="8">
+        <v>1</v>
+      </c>
+      <c r="H100" s="8">
+        <v>1</v>
+      </c>
+      <c r="I100" s="21">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:9">
-      <c r="A101" s="20"/>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="19"/>
+      <c r="B101" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <v>6</v>
       </c>
-      <c r="E101" s="9">
-        <v>1</v>
-      </c>
-      <c r="F101" s="9">
-        <v>1</v>
-      </c>
-      <c r="G101" s="9">
-        <v>1</v>
-      </c>
-      <c r="H101" s="9">
-        <v>1</v>
-      </c>
-      <c r="I101" s="22">
+      <c r="E101" s="8">
+        <v>1</v>
+      </c>
+      <c r="F101" s="8">
+        <v>1</v>
+      </c>
+      <c r="G101" s="8">
+        <v>1</v>
+      </c>
+      <c r="H101" s="8">
+        <v>1</v>
+      </c>
+      <c r="I101" s="21">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:9">
-      <c r="A102" s="20"/>
-      <c r="B102" s="8" t="s">
+      <c r="A102" s="19"/>
+      <c r="B102" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="8">
         <v>5</v>
       </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
-        <v>0</v>
-      </c>
-      <c r="G102" s="9">
-        <v>1</v>
-      </c>
-      <c r="H102" s="9">
-        <v>1</v>
-      </c>
-      <c r="I102" s="22">
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
+        <v>1</v>
+      </c>
+      <c r="H102" s="8">
+        <v>1</v>
+      </c>
+      <c r="I102" s="21">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:9">
-      <c r="A103" s="20"/>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="19"/>
+      <c r="B103" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D103" s="9">
-        <v>2</v>
-      </c>
-      <c r="E103" s="9">
-        <v>0</v>
-      </c>
-      <c r="F103" s="9">
-        <v>0</v>
-      </c>
-      <c r="G103" s="9">
-        <v>1</v>
-      </c>
-      <c r="H103" s="9">
-        <v>1</v>
-      </c>
-      <c r="I103" s="22">
+      <c r="D103" s="8">
+        <v>2</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0</v>
+      </c>
+      <c r="G103" s="8">
+        <v>1</v>
+      </c>
+      <c r="H103" s="8">
+        <v>1</v>
+      </c>
+      <c r="I103" s="21">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="9:9">
-      <c r="I104" s="22">
+      <c r="I104" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="9:9">
-      <c r="I105" s="22">
+      <c r="I105" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4962,7 +4962,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4984,412 +4984,422 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="16"/>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G8" si="0">F3*D3*(1+E3)*5</f>
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <f ca="1">SUMIF($B$3:$B$105,I2,$G3:$G45)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <f ca="1">SUMIF($B$3:$B$105,J2,$G3:$G45)</f>
-        <v>91</v>
-      </c>
-      <c r="K3" s="17">
+        <v>95.5</v>
+      </c>
+      <c r="K3" s="16">
         <f ca="1">SUMIF($B$3:$B$105,K2,$G3:$G45)</f>
         <v>60</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <f ca="1">SUMIF($B$3:$B$105,L2,$G3:$G45)</f>
         <v>8.8</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <f ca="1">SUMIF($B$3:$B$105,M2,$G3:$G45)</f>
         <v>0</v>
       </c>
       <c r="N3">
         <f ca="1">SUM(I3:M3)</f>
-        <v>159.8</v>
+        <v>164.3</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="9">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <f ca="1">I3/$N3*300</f>
         <v>0</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <f ca="1">J3/$N3*300</f>
-        <v>170.838548185232</v>
-      </c>
-      <c r="K4" s="18">
+        <v>174.376141205113</v>
+      </c>
+      <c r="K4" s="17">
         <f ca="1">K3/$N3*300</f>
-        <v>112.640801001252</v>
-      </c>
-      <c r="L4" s="18">
+        <v>109.555690809495</v>
+      </c>
+      <c r="L4" s="17">
         <f ca="1">L3/$N3*300</f>
-        <v>16.5206508135169</v>
-      </c>
-      <c r="M4" s="18">
+        <v>16.0681679853926</v>
+      </c>
+      <c r="M4" s="17">
         <f ca="1">M3/$N3*300</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <v>0.6</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>1.2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>0.2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>8.8</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>6</v>
       </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" ref="G8:G14" si="1">F9*D9*(1+E9)*5</f>
         <v>60</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="15"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2.5</v>
       </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
+      <c r="A11" s="14"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/成员分.xlsx
+++ b/docs/成员分.xlsx
@@ -522,10 +522,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
@@ -589,6 +589,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -596,14 +603,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -611,7 +633,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -634,22 +656,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,6 +695,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -696,37 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,13 +741,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,25 +831,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,13 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,109 +915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,30 +1024,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1072,6 +1048,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1083,6 +1083,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,15 +1121,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1129,10 +1129,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,133 +1141,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/docs/成员分.xlsx
+++ b/docs/成员分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19860" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alpha" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <t>日贡献评分</t>
   </si>
@@ -515,6 +515,163 @@
   </si>
   <si>
     <t>ScrumMeeting博客</t>
+  </si>
+  <si>
+    <t>2017/11/30（四）2017/12/1（五）</t>
+  </si>
+  <si>
+    <t>帖子发布功能/跟帖发布功能</t>
+  </si>
+  <si>
+    <t>帖子界面（支持查看评论）</t>
+  </si>
+  <si>
+    <t>更新学分、学时、教师等课程信息</t>
+  </si>
+  <si>
+    <t>2017/12/2
+(六)</t>
+  </si>
+  <si>
+    <t>评论功能</t>
+  </si>
+  <si>
+    <t>评价跟帖（赞同/反对）功能</t>
+  </si>
+  <si>
+    <t>获取帖子/跟帖信息功能</t>
+  </si>
+  <si>
+    <t>明日任务</t>
+  </si>
+  <si>
+    <t>用户/课程贡献度</t>
+  </si>
+  <si>
+    <t>博客部分前端衔接</t>
+  </si>
+  <si>
+    <t>更新数据库/接口说明文档</t>
+  </si>
+  <si>
+    <t>帖子点击量统计</t>
+  </si>
+  <si>
+    <t>2017/12/3
+(日)</t>
+  </si>
+  <si>
+    <t>课程信息编辑</t>
+  </si>
+  <si>
+    <t>资源/课程收藏</t>
+  </si>
+  <si>
+    <t>发布博文界面与接口衔接</t>
+  </si>
+  <si>
+    <t>资源/课程搜索</t>
+  </si>
+  <si>
+    <t>发布评论界面与接口衔接</t>
+  </si>
+  <si>
+    <t>文件名过长问题</t>
+  </si>
+  <si>
+    <t>发布博文界面</t>
+  </si>
+  <si>
+    <t>消息功能</t>
+  </si>
+  <si>
+    <t>评论信息获取</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>获取用户跟帖内容</t>
+  </si>
+  <si>
+    <t>资源评价相关功能</t>
+  </si>
+  <si>
+    <t>说明文档补全（见文档日志）</t>
+  </si>
+  <si>
+    <t>消息文档</t>
+  </si>
+  <si>
+    <t>2017/12/4
+(一)</t>
+  </si>
+  <si>
+    <t>贡献分获取</t>
+  </si>
+  <si>
+    <t>jmeter脚本和功能测试</t>
+  </si>
+  <si>
+    <t>发布跟帖界面与接口衔接</t>
+  </si>
+  <si>
+    <t>方科栋2 举报 配置npm</t>
+  </si>
+  <si>
+    <t>解决资源名过长的问题</t>
+  </si>
+  <si>
+    <t>张安澜2.5 三个接口</t>
+  </si>
+  <si>
+    <t>2017/12/5
+(二)</t>
+  </si>
+  <si>
+    <t>辛德泰8 衔接完毕</t>
+  </si>
+  <si>
+    <t>资源分类功能</t>
+  </si>
+  <si>
+    <t>赵奕2 资源评价相关</t>
+  </si>
+  <si>
+    <t>按类别获取课程（接口文档变更）</t>
+  </si>
+  <si>
+    <t>jmeter测试（+3BUG）</t>
+  </si>
+  <si>
+    <t>帖子显示html问题解决</t>
+  </si>
+  <si>
+    <t>消息功能学习</t>
+  </si>
+  <si>
+    <t>审核功能</t>
+  </si>
+  <si>
+    <t>讨论版界面接口衔接</t>
+  </si>
+  <si>
+    <t>帖子界面接口衔接</t>
+  </si>
+  <si>
+    <t>邮箱认证</t>
+  </si>
+  <si>
+    <t>课程收藏功能</t>
+  </si>
+  <si>
+    <t>课程收藏评分显示</t>
+  </si>
+  <si>
+    <t>认证登录部分</t>
+  </si>
+  <si>
+    <t>课程举报</t>
   </si>
 </sst>
 </file>
@@ -522,12 +679,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -554,19 +711,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF444444"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -582,9 +726,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,14 +760,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,46 +811,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,6 +830,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,22 +859,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -718,21 +866,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,7 +898,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,121 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +940,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +1000,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,6 +1079,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,30 +1196,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1072,6 +1217,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1083,15 +1248,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,11 +1269,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,10 +1298,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,137 +1310,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,50 +1486,110 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,13 +1600,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1774,16 +2000,16 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A2" s="4" t="s">
@@ -1857,7 +2083,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:24">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1888,27 +2114,27 @@
       <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="38">
         <f>SUMIF($B$3:$B$105,K2,$I$3:$I$105)</f>
         <v>653.75</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="38">
         <f>SUMIF($B$3:$B$105,L2,$I$3:$I$105)</f>
         <v>606</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="38">
         <f>SUMIF($B$3:$B$105,M2,$I$3:$I$105)</f>
         <v>862.5</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="38">
         <f>SUMIF($B$3:$B$105,N2,$I$3:$I$105)</f>
         <v>663</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="38">
         <f>SUMIF($B$3:$B$105,O2,$I$3:$I$105)</f>
         <v>622.25</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="38">
         <f>SUMIF($B$3:$B$105,P2,$I$3:$I$105)</f>
         <v>652.5</v>
       </c>
@@ -1916,8 +2142,8 @@
         <f ca="1">SUM(K3:P3)</f>
         <v>4060</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34" t="s">
+      <c r="R3" s="53"/>
+      <c r="S3" s="54" t="s">
         <v>13</v>
       </c>
       <c r="T3" s="35" t="s">
@@ -1931,7 +2157,7 @@
       <c r="X3" s="35"/>
     </row>
     <row r="4" customHeight="1" spans="1:24">
-      <c r="A4" s="19"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1960,27 +2186,27 @@
       <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="39">
         <f ca="1">K3/$Q3*300</f>
         <v>48.3066502463054</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="39">
         <f ca="1">L3/$Q3*300</f>
         <v>44.7783251231527</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="39">
         <f ca="1" t="shared" ref="K4:P4" si="1">M3/$Q3*300</f>
         <v>63.7315270935961</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="39">
         <f ca="1" t="shared" si="1"/>
         <v>48.9901477832512</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="39">
         <f ca="1" t="shared" si="1"/>
         <v>45.9790640394089</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="39">
         <f ca="1" t="shared" si="1"/>
         <v>48.2142857142857</v>
       </c>
@@ -1988,16 +2214,16 @@
         <f ca="1">SUM(K4:P4)</f>
         <v>300</v>
       </c>
-      <c r="R4" s="29"/>
+      <c r="R4" s="44"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
     </row>
     <row r="5" customHeight="1" spans="1:24">
-      <c r="A5" s="19"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2026,34 +2252,34 @@
       <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="39">
         <v>48</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="39">
         <v>45</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="39">
         <v>64</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="39">
         <v>50</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="39">
         <v>46</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="39">
         <v>47</v>
       </c>
-      <c r="R5" s="29"/>
+      <c r="R5" s="44"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
     </row>
     <row r="6" customHeight="1" spans="1:24">
-      <c r="A6" s="19"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -2079,16 +2305,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="R6" s="29"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" customHeight="1" spans="1:24">
-      <c r="A7" s="19"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
@@ -2114,16 +2340,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R7" s="29"/>
+      <c r="R7" s="44"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
     </row>
     <row r="8" customHeight="1" spans="1:24">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2151,16 +2377,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="R8" s="29"/>
+      <c r="R8" s="44"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
     </row>
     <row r="9" customHeight="1" spans="1:24">
-      <c r="A9" s="20"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2186,16 +2412,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R9" s="29"/>
+      <c r="R9" s="44"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
     </row>
     <row r="10" customHeight="1" spans="1:24">
-      <c r="A10" s="20"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2221,16 +2447,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R10" s="29"/>
+      <c r="R10" s="44"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
     </row>
     <row r="11" customHeight="1" spans="1:24">
-      <c r="A11" s="20"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2256,1252 +2482,1252 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R11" s="29"/>
+      <c r="R11" s="44"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
     </row>
     <row r="12" customHeight="1" spans="1:24">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="32">
         <v>5</v>
       </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22">
-        <v>1</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="R12" s="29"/>
+      <c r="R12" s="44"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
     </row>
     <row r="13" customHeight="1" spans="1:24">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="22">
-        <v>1</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22">
-        <v>1</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R13" s="29"/>
+      <c r="R13" s="44"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
     </row>
     <row r="14" customHeight="1" spans="1:24">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="32">
         <v>4</v>
       </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="E14" s="32">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R14" s="29"/>
+      <c r="R14" s="44"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
     </row>
     <row r="15" customHeight="1" spans="1:24">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="32">
         <v>4</v>
       </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22">
-        <v>2</v>
-      </c>
-      <c r="G15" s="22">
-        <v>1</v>
-      </c>
-      <c r="H15" s="22">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <v>2</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="R15" s="29"/>
+      <c r="R15" s="44"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
     </row>
     <row r="16" customHeight="1" spans="1:24">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="22">
-        <v>2</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="32">
+        <v>2</v>
+      </c>
+      <c r="E16" s="32">
         <v>0</v>
       </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
-        <v>1</v>
-      </c>
-      <c r="H16" s="22">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21">
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="R16" s="29"/>
+      <c r="R16" s="44"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
     </row>
     <row r="17" customHeight="1" spans="1:24">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
         <v>0</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="32">
         <v>0</v>
       </c>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="G17" s="32">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R17" s="29"/>
+      <c r="R17" s="44"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
     </row>
     <row r="18" customHeight="1" spans="1:24">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="32">
         <v>4</v>
       </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R18" s="29"/>
+      <c r="R18" s="44"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
     </row>
     <row r="19" customHeight="1" spans="1:24">
-      <c r="A19" s="23"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="22">
-        <v>2</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="D19" s="32">
+        <v>2</v>
+      </c>
+      <c r="E19" s="32">
         <v>0</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="32">
         <v>0</v>
       </c>
-      <c r="G19" s="22">
-        <v>1</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="G19" s="32">
+        <v>1</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31">
         <f t="shared" ref="I19:I25" si="2">((G19+H19)*0.5)*D19*10*(1+(E19+F19)*0.25)</f>
         <v>20</v>
       </c>
-      <c r="R19" s="29"/>
+      <c r="R19" s="44"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="23"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="22">
-        <v>2</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="D20" s="32">
+        <v>2</v>
+      </c>
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1</v>
+      </c>
+      <c r="I20" s="31">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="22">
-        <v>2</v>
-      </c>
-      <c r="E21" s="22">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="D21" s="32">
+        <v>2</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="23"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="32">
         <v>4</v>
       </c>
-      <c r="E22" s="22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="32">
+        <v>2</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+      <c r="I22" s="31">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="23"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="22">
-        <v>1</v>
-      </c>
-      <c r="E23" s="22">
-        <v>2</v>
-      </c>
-      <c r="F23" s="22">
-        <v>2</v>
-      </c>
-      <c r="G23" s="22">
-        <v>1</v>
-      </c>
-      <c r="H23" s="22">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="32">
+        <v>2</v>
+      </c>
+      <c r="F23" s="32">
+        <v>2</v>
+      </c>
+      <c r="G23" s="32">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+      <c r="I23" s="31">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="23"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="22">
-        <v>1</v>
-      </c>
-      <c r="E24" s="22">
-        <v>2</v>
-      </c>
-      <c r="F24" s="22">
-        <v>2</v>
-      </c>
-      <c r="G24" s="22">
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32">
+        <v>2</v>
+      </c>
+      <c r="F24" s="32">
+        <v>2</v>
+      </c>
+      <c r="G24" s="32">
         <v>0.6</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="32">
         <v>0.6</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="31">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="32">
         <v>0.5</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="32">
         <v>0</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="32">
         <v>0</v>
       </c>
-      <c r="G25" s="22">
-        <v>1</v>
-      </c>
-      <c r="H25" s="22">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="G25" s="32">
+        <v>1</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1</v>
+      </c>
+      <c r="I25" s="31">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="32">
         <v>3</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="32">
         <v>0</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="32">
         <v>0</v>
       </c>
-      <c r="G26" s="22">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22">
-        <v>1</v>
-      </c>
-      <c r="I26" s="21">
+      <c r="G26" s="32">
+        <v>1</v>
+      </c>
+      <c r="H26" s="32">
+        <v>1</v>
+      </c>
+      <c r="I26" s="31">
         <f t="shared" ref="I26:I36" si="3">((G26+H26)*0.5)*D26*10*(1+(E26+F26)*0.25)</f>
         <v>30</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="32">
         <v>8</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="32">
         <v>0</v>
       </c>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22">
-        <v>1</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="F27" s="32">
+        <v>1</v>
+      </c>
+      <c r="G27" s="32">
+        <v>1</v>
+      </c>
+      <c r="H27" s="32">
+        <v>1</v>
+      </c>
+      <c r="I27" s="31">
         <v>100</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="24"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="32">
         <v>6</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="32">
         <v>0</v>
       </c>
-      <c r="F28" s="22">
-        <v>1</v>
-      </c>
-      <c r="G28" s="22">
-        <v>1</v>
-      </c>
-      <c r="H28" s="22">
-        <v>1</v>
-      </c>
-      <c r="I28" s="21">
+      <c r="F28" s="32">
+        <v>1</v>
+      </c>
+      <c r="G28" s="32">
+        <v>1</v>
+      </c>
+      <c r="H28" s="32">
+        <v>1</v>
+      </c>
+      <c r="I28" s="31">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="24"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="32">
         <v>0.5</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="32">
         <v>0</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="32">
         <v>0</v>
       </c>
-      <c r="G29" s="22">
-        <v>1</v>
-      </c>
-      <c r="H29" s="22">
-        <v>1</v>
-      </c>
-      <c r="I29" s="21">
+      <c r="G29" s="32">
+        <v>1</v>
+      </c>
+      <c r="H29" s="32">
+        <v>1</v>
+      </c>
+      <c r="I29" s="31">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="32">
         <v>6</v>
       </c>
-      <c r="E30" s="22">
-        <v>1</v>
-      </c>
-      <c r="F30" s="22">
-        <v>1</v>
-      </c>
-      <c r="G30" s="22">
-        <v>1</v>
-      </c>
-      <c r="H30" s="22">
+      <c r="E30" s="32">
+        <v>1</v>
+      </c>
+      <c r="F30" s="32">
+        <v>1</v>
+      </c>
+      <c r="G30" s="32">
+        <v>1</v>
+      </c>
+      <c r="H30" s="32">
         <v>0.8</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="31">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="32">
         <v>4</v>
       </c>
-      <c r="E31" s="22">
-        <v>1</v>
-      </c>
-      <c r="F31" s="22">
-        <v>2</v>
-      </c>
-      <c r="G31" s="22">
-        <v>1</v>
-      </c>
-      <c r="H31" s="22">
-        <v>1</v>
-      </c>
-      <c r="I31" s="21">
+      <c r="E31" s="32">
+        <v>1</v>
+      </c>
+      <c r="F31" s="32">
+        <v>2</v>
+      </c>
+      <c r="G31" s="32">
+        <v>1</v>
+      </c>
+      <c r="H31" s="32">
+        <v>1</v>
+      </c>
+      <c r="I31" s="31">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="24"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="32">
         <v>3</v>
       </c>
-      <c r="E32" s="22">
-        <v>2</v>
-      </c>
-      <c r="F32" s="22">
-        <v>2</v>
-      </c>
-      <c r="G32" s="22">
-        <v>1</v>
-      </c>
-      <c r="H32" s="22">
-        <v>1</v>
-      </c>
-      <c r="I32" s="21">
+      <c r="E32" s="32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="31">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="24"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="22">
-        <v>2</v>
-      </c>
-      <c r="E33" s="22">
+      <c r="D33" s="32">
+        <v>2</v>
+      </c>
+      <c r="E33" s="32">
         <v>0</v>
       </c>
-      <c r="F33" s="22">
-        <v>1</v>
-      </c>
-      <c r="G33" s="22">
-        <v>1</v>
-      </c>
-      <c r="H33" s="22">
-        <v>1</v>
-      </c>
-      <c r="I33" s="21">
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
+      <c r="G33" s="32">
+        <v>1</v>
+      </c>
+      <c r="H33" s="32">
+        <v>1</v>
+      </c>
+      <c r="I33" s="31">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="22">
-        <v>1</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="D34" s="32">
+        <v>1</v>
+      </c>
+      <c r="E34" s="32">
         <v>0</v>
       </c>
-      <c r="F34" s="22">
-        <v>1</v>
-      </c>
-      <c r="G34" s="22">
-        <v>1</v>
-      </c>
-      <c r="H34" s="22">
-        <v>1</v>
-      </c>
-      <c r="I34" s="21">
+      <c r="F34" s="32">
+        <v>1</v>
+      </c>
+      <c r="G34" s="32">
+        <v>1</v>
+      </c>
+      <c r="H34" s="32">
+        <v>1</v>
+      </c>
+      <c r="I34" s="31">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="24"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="32">
         <v>4.5</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="32">
         <v>0</v>
       </c>
-      <c r="F35" s="22">
-        <v>1</v>
-      </c>
-      <c r="G35" s="22">
-        <v>1</v>
-      </c>
-      <c r="H35" s="22">
-        <v>1</v>
-      </c>
-      <c r="I35" s="21">
+      <c r="F35" s="32">
+        <v>1</v>
+      </c>
+      <c r="G35" s="32">
+        <v>1</v>
+      </c>
+      <c r="H35" s="32">
+        <v>1</v>
+      </c>
+      <c r="I35" s="31">
         <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="32">
         <v>1.5</v>
       </c>
-      <c r="E36" s="22">
-        <v>2</v>
-      </c>
-      <c r="F36" s="22">
-        <v>2</v>
-      </c>
-      <c r="G36" s="22">
-        <v>1</v>
-      </c>
-      <c r="H36" s="22">
-        <v>1</v>
-      </c>
-      <c r="I36" s="21">
+      <c r="E36" s="32">
+        <v>2</v>
+      </c>
+      <c r="F36" s="32">
+        <v>2</v>
+      </c>
+      <c r="G36" s="32">
+        <v>1</v>
+      </c>
+      <c r="H36" s="32">
+        <v>1</v>
+      </c>
+      <c r="I36" s="31">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="24"/>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="32">
         <v>6</v>
       </c>
-      <c r="E37" s="22">
-        <v>1</v>
-      </c>
-      <c r="F37" s="22">
-        <v>2</v>
-      </c>
-      <c r="G37" s="22">
-        <v>1</v>
-      </c>
-      <c r="H37" s="22">
-        <v>1</v>
-      </c>
-      <c r="I37" s="21">
+      <c r="E37" s="32">
+        <v>1</v>
+      </c>
+      <c r="F37" s="32">
+        <v>2</v>
+      </c>
+      <c r="G37" s="32">
+        <v>1</v>
+      </c>
+      <c r="H37" s="32">
+        <v>1</v>
+      </c>
+      <c r="I37" s="31">
         <f t="shared" ref="I37:I44" si="4">((G37+H37)*0.5)*D37*10*(1+(E37+F37)*0.25)</f>
         <v>105</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="24"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="22">
-        <v>2</v>
-      </c>
-      <c r="E38" s="22">
-        <v>1</v>
-      </c>
-      <c r="F38" s="22">
-        <v>1</v>
-      </c>
-      <c r="G38" s="22">
-        <v>1</v>
-      </c>
-      <c r="H38" s="22">
-        <v>1</v>
-      </c>
-      <c r="I38" s="21">
+      <c r="D38" s="32">
+        <v>2</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+      <c r="F38" s="32">
+        <v>1</v>
+      </c>
+      <c r="G38" s="32">
+        <v>1</v>
+      </c>
+      <c r="H38" s="32">
+        <v>1</v>
+      </c>
+      <c r="I38" s="31">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="24"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="22">
-        <v>1</v>
-      </c>
-      <c r="E39" s="22">
+      <c r="D39" s="32">
+        <v>1</v>
+      </c>
+      <c r="E39" s="32">
         <v>0</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="32">
         <v>0</v>
       </c>
-      <c r="G39" s="22">
-        <v>1</v>
-      </c>
-      <c r="H39" s="22">
-        <v>1</v>
-      </c>
-      <c r="I39" s="21">
+      <c r="G39" s="32">
+        <v>1</v>
+      </c>
+      <c r="H39" s="32">
+        <v>1</v>
+      </c>
+      <c r="I39" s="31">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="24"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="32">
         <v>0.5</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="32">
         <v>0</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="32">
         <v>0</v>
       </c>
-      <c r="G40" s="22">
-        <v>1</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1</v>
-      </c>
-      <c r="I40" s="21">
+      <c r="G40" s="32">
+        <v>1</v>
+      </c>
+      <c r="H40" s="32">
+        <v>1</v>
+      </c>
+      <c r="I40" s="31">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="32">
         <v>6</v>
       </c>
-      <c r="E41" s="22">
-        <v>1</v>
-      </c>
-      <c r="F41" s="22">
-        <v>2</v>
-      </c>
-      <c r="G41" s="22">
-        <v>1</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1</v>
-      </c>
-      <c r="I41" s="21">
+      <c r="E41" s="32">
+        <v>1</v>
+      </c>
+      <c r="F41" s="32">
+        <v>2</v>
+      </c>
+      <c r="G41" s="32">
+        <v>1</v>
+      </c>
+      <c r="H41" s="32">
+        <v>1</v>
+      </c>
+      <c r="I41" s="31">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="24"/>
-      <c r="B42" s="26" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="18">
         <v>10</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="18">
         <v>0</v>
       </c>
-      <c r="F42" s="24">
-        <v>1</v>
-      </c>
-      <c r="G42" s="24">
-        <v>1</v>
-      </c>
-      <c r="H42" s="24">
-        <v>1</v>
-      </c>
-      <c r="I42" s="27">
+      <c r="F42" s="18">
+        <v>1</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1</v>
+      </c>
+      <c r="I42" s="48">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="24"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="22" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="27"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="48"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="24"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="22" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="27"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="48"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="24"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="22" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="27"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="48"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="24"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="22" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="27"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="48"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="24"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="32">
         <v>4</v>
       </c>
-      <c r="E47" s="22">
-        <v>1</v>
-      </c>
-      <c r="F47" s="22">
-        <v>2</v>
-      </c>
-      <c r="G47" s="22">
-        <v>1</v>
-      </c>
-      <c r="H47" s="22">
-        <v>1</v>
-      </c>
-      <c r="I47" s="21">
+      <c r="E47" s="32">
+        <v>1</v>
+      </c>
+      <c r="F47" s="32">
+        <v>2</v>
+      </c>
+      <c r="G47" s="32">
+        <v>1</v>
+      </c>
+      <c r="H47" s="32">
+        <v>1</v>
+      </c>
+      <c r="I47" s="31">
         <f t="shared" ref="I47:I53" si="5">((G47+H47)*0.5)*D47*10*(1+(E47+F47)*0.25)</f>
         <v>70</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="24"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="22">
-        <v>2</v>
-      </c>
-      <c r="E48" s="22">
-        <v>1</v>
-      </c>
-      <c r="F48" s="22">
-        <v>1</v>
-      </c>
-      <c r="G48" s="22">
-        <v>1</v>
-      </c>
-      <c r="H48" s="22">
-        <v>1</v>
-      </c>
-      <c r="I48" s="21">
+      <c r="D48" s="32">
+        <v>2</v>
+      </c>
+      <c r="E48" s="32">
+        <v>1</v>
+      </c>
+      <c r="F48" s="32">
+        <v>1</v>
+      </c>
+      <c r="G48" s="32">
+        <v>1</v>
+      </c>
+      <c r="H48" s="32">
+        <v>1</v>
+      </c>
+      <c r="I48" s="31">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="24"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="32">
         <v>0.5</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="32">
         <v>0</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="32">
         <v>0</v>
       </c>
-      <c r="G49" s="22">
-        <v>1</v>
-      </c>
-      <c r="H49" s="22">
-        <v>1</v>
-      </c>
-      <c r="I49" s="21">
+      <c r="G49" s="32">
+        <v>1</v>
+      </c>
+      <c r="H49" s="32">
+        <v>1</v>
+      </c>
+      <c r="I49" s="31">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="32">
         <v>8</v>
       </c>
-      <c r="E50" s="22">
-        <v>1</v>
-      </c>
-      <c r="F50" s="22">
-        <v>2</v>
-      </c>
-      <c r="G50" s="22">
-        <v>1</v>
-      </c>
-      <c r="H50" s="22">
-        <v>1</v>
-      </c>
-      <c r="I50" s="28">
+      <c r="E50" s="32">
+        <v>1</v>
+      </c>
+      <c r="F50" s="32">
+        <v>2</v>
+      </c>
+      <c r="G50" s="32">
+        <v>1</v>
+      </c>
+      <c r="H50" s="32">
+        <v>1</v>
+      </c>
+      <c r="I50" s="49">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="24"/>
-      <c r="B51" s="21" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="22">
-        <v>2</v>
-      </c>
-      <c r="E51" s="22">
-        <v>1</v>
-      </c>
-      <c r="F51" s="22">
-        <v>1</v>
-      </c>
-      <c r="G51" s="22">
-        <v>1</v>
-      </c>
-      <c r="H51" s="22">
-        <v>1</v>
-      </c>
-      <c r="I51" s="21">
+      <c r="D51" s="32">
+        <v>2</v>
+      </c>
+      <c r="E51" s="32">
+        <v>1</v>
+      </c>
+      <c r="F51" s="32">
+        <v>1</v>
+      </c>
+      <c r="G51" s="32">
+        <v>1</v>
+      </c>
+      <c r="H51" s="32">
+        <v>1</v>
+      </c>
+      <c r="I51" s="31">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="24"/>
-      <c r="B52" s="21" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="22">
-        <v>1</v>
-      </c>
-      <c r="E52" s="22">
-        <v>2</v>
-      </c>
-      <c r="F52" s="22">
-        <v>2</v>
-      </c>
-      <c r="G52" s="22">
-        <v>1</v>
-      </c>
-      <c r="H52" s="22">
-        <v>1</v>
-      </c>
-      <c r="I52" s="21">
+      <c r="D52" s="32">
+        <v>1</v>
+      </c>
+      <c r="E52" s="32">
+        <v>2</v>
+      </c>
+      <c r="F52" s="32">
+        <v>2</v>
+      </c>
+      <c r="G52" s="32">
+        <v>1</v>
+      </c>
+      <c r="H52" s="32">
+        <v>1</v>
+      </c>
+      <c r="I52" s="31">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="24"/>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="22">
-        <v>2</v>
-      </c>
-      <c r="E53" s="22">
+      <c r="D53" s="32">
+        <v>2</v>
+      </c>
+      <c r="E53" s="32">
         <v>0</v>
       </c>
-      <c r="F53" s="22">
-        <v>1</v>
-      </c>
-      <c r="G53" s="22">
-        <v>1</v>
-      </c>
-      <c r="H53" s="22">
-        <v>1</v>
-      </c>
-      <c r="I53" s="21">
+      <c r="F53" s="32">
+        <v>1</v>
+      </c>
+      <c r="G53" s="32">
+        <v>1</v>
+      </c>
+      <c r="H53" s="32">
+        <v>1</v>
+      </c>
+      <c r="I53" s="31">
         <f t="shared" ref="I53:I72" si="6">((G53+H53)*0.5)*D53*10*(1+(E53+F53)*0.25)</f>
         <v>25</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="24"/>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="22">
-        <v>1</v>
-      </c>
-      <c r="E54" s="22">
-        <v>2</v>
-      </c>
-      <c r="F54" s="22">
-        <v>2</v>
-      </c>
-      <c r="G54" s="22">
-        <v>1</v>
-      </c>
-      <c r="H54" s="22">
+      <c r="D54" s="32">
+        <v>1</v>
+      </c>
+      <c r="E54" s="32">
+        <v>2</v>
+      </c>
+      <c r="F54" s="32">
+        <v>2</v>
+      </c>
+      <c r="G54" s="32">
+        <v>1</v>
+      </c>
+      <c r="H54" s="32">
         <v>0.8</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="31">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:11">
-      <c r="A55" s="24"/>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="22">
-        <v>2</v>
-      </c>
-      <c r="E55" s="22">
-        <v>1</v>
-      </c>
-      <c r="F55" s="22">
-        <v>1</v>
-      </c>
-      <c r="G55" s="22">
-        <v>1</v>
-      </c>
-      <c r="H55" s="22">
-        <v>1</v>
-      </c>
-      <c r="I55" s="21">
+      <c r="D55" s="32">
+        <v>2</v>
+      </c>
+      <c r="E55" s="32">
+        <v>1</v>
+      </c>
+      <c r="F55" s="32">
+        <v>1</v>
+      </c>
+      <c r="G55" s="32">
+        <v>1</v>
+      </c>
+      <c r="H55" s="32">
+        <v>1</v>
+      </c>
+      <c r="I55" s="31">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
@@ -3510,31 +3736,31 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:12">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="22">
-        <v>1</v>
-      </c>
-      <c r="E56" s="22">
+      <c r="D56" s="32">
+        <v>1</v>
+      </c>
+      <c r="E56" s="32">
         <v>0</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="32">
         <v>0</v>
       </c>
-      <c r="G56" s="22">
-        <v>1</v>
-      </c>
-      <c r="H56" s="22">
-        <v>1</v>
-      </c>
-      <c r="I56" s="21">
+      <c r="G56" s="32">
+        <v>1</v>
+      </c>
+      <c r="H56" s="32">
+        <v>1</v>
+      </c>
+      <c r="I56" s="31">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3546,259 +3772,259 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="24"/>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="22">
-        <v>2</v>
-      </c>
-      <c r="E57" s="22">
-        <v>2</v>
-      </c>
-      <c r="F57" s="22">
-        <v>2</v>
-      </c>
-      <c r="G57" s="22">
-        <v>1</v>
-      </c>
-      <c r="H57" s="22">
-        <v>1</v>
-      </c>
-      <c r="I57" s="21">
+      <c r="D57" s="32">
+        <v>2</v>
+      </c>
+      <c r="E57" s="32">
+        <v>2</v>
+      </c>
+      <c r="F57" s="32">
+        <v>2</v>
+      </c>
+      <c r="G57" s="32">
+        <v>1</v>
+      </c>
+      <c r="H57" s="32">
+        <v>1</v>
+      </c>
+      <c r="I57" s="31">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="24"/>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="32">
         <v>3</v>
       </c>
-      <c r="E58" s="22">
-        <v>1</v>
-      </c>
-      <c r="F58" s="22">
-        <v>1</v>
-      </c>
-      <c r="G58" s="22">
-        <v>1</v>
-      </c>
-      <c r="H58" s="22">
-        <v>1</v>
-      </c>
-      <c r="I58" s="21">
+      <c r="E58" s="32">
+        <v>1</v>
+      </c>
+      <c r="F58" s="32">
+        <v>1</v>
+      </c>
+      <c r="G58" s="32">
+        <v>1</v>
+      </c>
+      <c r="H58" s="32">
+        <v>1</v>
+      </c>
+      <c r="I58" s="31">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="24"/>
-      <c r="B59" s="21" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="22">
-        <v>1</v>
-      </c>
-      <c r="E59" s="22">
+      <c r="D59" s="32">
+        <v>1</v>
+      </c>
+      <c r="E59" s="32">
         <v>0</v>
       </c>
-      <c r="F59" s="22">
-        <v>1</v>
-      </c>
-      <c r="G59" s="22">
-        <v>1</v>
-      </c>
-      <c r="H59" s="22">
-        <v>1</v>
-      </c>
-      <c r="I59" s="21">
+      <c r="F59" s="32">
+        <v>1</v>
+      </c>
+      <c r="G59" s="32">
+        <v>1</v>
+      </c>
+      <c r="H59" s="32">
+        <v>1</v>
+      </c>
+      <c r="I59" s="31">
         <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="24"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="32">
         <v>3</v>
       </c>
-      <c r="E60" s="22">
-        <v>1</v>
-      </c>
-      <c r="F60" s="22">
-        <v>1</v>
-      </c>
-      <c r="G60" s="22">
-        <v>1</v>
-      </c>
-      <c r="H60" s="22">
-        <v>1</v>
-      </c>
-      <c r="I60" s="21">
+      <c r="E60" s="32">
+        <v>1</v>
+      </c>
+      <c r="F60" s="32">
+        <v>1</v>
+      </c>
+      <c r="G60" s="32">
+        <v>1</v>
+      </c>
+      <c r="H60" s="32">
+        <v>1</v>
+      </c>
+      <c r="I60" s="31">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="24"/>
-      <c r="B61" s="21" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="22">
-        <v>2</v>
-      </c>
-      <c r="E61" s="22">
-        <v>1</v>
-      </c>
-      <c r="F61" s="22">
-        <v>2</v>
-      </c>
-      <c r="G61" s="22">
-        <v>1</v>
-      </c>
-      <c r="H61" s="22">
-        <v>1</v>
-      </c>
-      <c r="I61" s="21">
+      <c r="D61" s="32">
+        <v>2</v>
+      </c>
+      <c r="E61" s="32">
+        <v>1</v>
+      </c>
+      <c r="F61" s="32">
+        <v>2</v>
+      </c>
+      <c r="G61" s="32">
+        <v>1</v>
+      </c>
+      <c r="H61" s="32">
+        <v>1</v>
+      </c>
+      <c r="I61" s="31">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="24"/>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="22">
-        <v>1</v>
-      </c>
-      <c r="E62" s="22">
+      <c r="D62" s="32">
+        <v>1</v>
+      </c>
+      <c r="E62" s="32">
         <v>0</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="32">
         <v>0</v>
       </c>
-      <c r="G62" s="22">
-        <v>1</v>
-      </c>
-      <c r="H62" s="22">
-        <v>1</v>
-      </c>
-      <c r="I62" s="21">
+      <c r="G62" s="32">
+        <v>1</v>
+      </c>
+      <c r="H62" s="32">
+        <v>1</v>
+      </c>
+      <c r="I62" s="31">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="22">
-        <v>2</v>
-      </c>
-      <c r="E63" s="22">
+      <c r="D63" s="32">
+        <v>2</v>
+      </c>
+      <c r="E63" s="32">
         <v>0</v>
       </c>
-      <c r="F63" s="22">
-        <v>1</v>
-      </c>
-      <c r="G63" s="22">
-        <v>1</v>
-      </c>
-      <c r="H63" s="22">
-        <v>1</v>
-      </c>
-      <c r="I63" s="21">
+      <c r="F63" s="32">
+        <v>1</v>
+      </c>
+      <c r="G63" s="32">
+        <v>1</v>
+      </c>
+      <c r="H63" s="32">
+        <v>1</v>
+      </c>
+      <c r="I63" s="31">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="23"/>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="32">
         <v>8</v>
       </c>
-      <c r="E64" s="22">
-        <v>1</v>
-      </c>
-      <c r="F64" s="22">
-        <v>2</v>
-      </c>
-      <c r="G64" s="22">
-        <v>1</v>
-      </c>
-      <c r="H64" s="22">
-        <v>1</v>
-      </c>
-      <c r="I64" s="21">
+      <c r="E64" s="32">
+        <v>1</v>
+      </c>
+      <c r="F64" s="32">
+        <v>2</v>
+      </c>
+      <c r="G64" s="32">
+        <v>1</v>
+      </c>
+      <c r="H64" s="32">
+        <v>1</v>
+      </c>
+      <c r="I64" s="31">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:19">
-      <c r="A65" s="23"/>
-      <c r="B65" s="21" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="22">
-        <v>2</v>
-      </c>
-      <c r="E65" s="22">
-        <v>1</v>
-      </c>
-      <c r="F65" s="22">
-        <v>2</v>
-      </c>
-      <c r="G65" s="22">
-        <v>1</v>
-      </c>
-      <c r="H65" s="22">
-        <v>1</v>
-      </c>
-      <c r="I65" s="21">
+      <c r="D65" s="32">
+        <v>2</v>
+      </c>
+      <c r="E65" s="32">
+        <v>1</v>
+      </c>
+      <c r="F65" s="32">
+        <v>2</v>
+      </c>
+      <c r="G65" s="32">
+        <v>1</v>
+      </c>
+      <c r="H65" s="32">
+        <v>1</v>
+      </c>
+      <c r="I65" s="31">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="K65" s="20"/>
+      <c r="K65" s="33"/>
       <c r="L65" s="7"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -3806,36 +4032,36 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="21"/>
+      <c r="S65" s="31"/>
     </row>
     <row r="66" customHeight="1" spans="1:19">
-      <c r="A66" s="23"/>
-      <c r="B66" s="21" t="s">
+      <c r="A66" s="30"/>
+      <c r="B66" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="22">
-        <v>2</v>
-      </c>
-      <c r="E66" s="22">
+      <c r="D66" s="32">
+        <v>2</v>
+      </c>
+      <c r="E66" s="32">
         <v>0</v>
       </c>
-      <c r="F66" s="22">
-        <v>1</v>
-      </c>
-      <c r="G66" s="22">
-        <v>1</v>
-      </c>
-      <c r="H66" s="22">
-        <v>1</v>
-      </c>
-      <c r="I66" s="21">
+      <c r="F66" s="32">
+        <v>1</v>
+      </c>
+      <c r="G66" s="32">
+        <v>1</v>
+      </c>
+      <c r="H66" s="32">
+        <v>1</v>
+      </c>
+      <c r="I66" s="31">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="K66" s="20"/>
+      <c r="K66" s="33"/>
       <c r="L66" s="7"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
@@ -3843,36 +4069,36 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="21"/>
+      <c r="S66" s="31"/>
     </row>
     <row r="67" customHeight="1" spans="1:19">
-      <c r="A67" s="23"/>
-      <c r="B67" s="21" t="s">
+      <c r="A67" s="30"/>
+      <c r="B67" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="32">
         <v>4</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="32">
         <v>0</v>
       </c>
-      <c r="F67" s="22">
-        <v>1</v>
-      </c>
-      <c r="G67" s="22">
-        <v>1</v>
-      </c>
-      <c r="H67" s="22">
-        <v>1</v>
-      </c>
-      <c r="I67" s="21">
+      <c r="F67" s="32">
+        <v>1</v>
+      </c>
+      <c r="G67" s="32">
+        <v>1</v>
+      </c>
+      <c r="H67" s="32">
+        <v>1</v>
+      </c>
+      <c r="I67" s="31">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="K67" s="20"/>
+      <c r="K67" s="33"/>
       <c r="L67" s="7"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -3880,36 +4106,36 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
-      <c r="S67" s="21"/>
+      <c r="S67" s="31"/>
     </row>
     <row r="68" customHeight="1" spans="1:19">
-      <c r="A68" s="23"/>
-      <c r="B68" s="21" t="s">
+      <c r="A68" s="30"/>
+      <c r="B68" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="32">
         <v>6</v>
       </c>
-      <c r="E68" s="22">
-        <v>1</v>
-      </c>
-      <c r="F68" s="22">
-        <v>1</v>
-      </c>
-      <c r="G68" s="22">
-        <v>1</v>
-      </c>
-      <c r="H68" s="22">
-        <v>1</v>
-      </c>
-      <c r="I68" s="21">
+      <c r="E68" s="32">
+        <v>1</v>
+      </c>
+      <c r="F68" s="32">
+        <v>1</v>
+      </c>
+      <c r="G68" s="32">
+        <v>1</v>
+      </c>
+      <c r="H68" s="32">
+        <v>1</v>
+      </c>
+      <c r="I68" s="31">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="K68" s="20"/>
+      <c r="K68" s="33"/>
       <c r="L68" s="7"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
@@ -3917,36 +4143,36 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="21"/>
+      <c r="S68" s="31"/>
     </row>
     <row r="69" customHeight="1" spans="1:19">
-      <c r="A69" s="23"/>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="32">
         <v>4</v>
       </c>
-      <c r="E69" s="22">
-        <v>1</v>
-      </c>
-      <c r="F69" s="22">
-        <v>1</v>
-      </c>
-      <c r="G69" s="22">
-        <v>1</v>
-      </c>
-      <c r="H69" s="22">
-        <v>1</v>
-      </c>
-      <c r="I69" s="21">
+      <c r="E69" s="32">
+        <v>1</v>
+      </c>
+      <c r="F69" s="32">
+        <v>1</v>
+      </c>
+      <c r="G69" s="32">
+        <v>1</v>
+      </c>
+      <c r="H69" s="32">
+        <v>1</v>
+      </c>
+      <c r="I69" s="31">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K69" s="20"/>
+      <c r="K69" s="33"/>
       <c r="L69" s="7"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -3954,36 +4180,36 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="21"/>
+      <c r="S69" s="31"/>
     </row>
     <row r="70" customHeight="1" spans="1:19">
-      <c r="A70" s="23"/>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="22">
-        <v>1</v>
-      </c>
-      <c r="E70" s="22">
+      <c r="D70" s="32">
+        <v>1</v>
+      </c>
+      <c r="E70" s="32">
         <v>0</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="32">
         <v>0</v>
       </c>
-      <c r="G70" s="22">
-        <v>1</v>
-      </c>
-      <c r="H70" s="22">
-        <v>1</v>
-      </c>
-      <c r="I70" s="21">
+      <c r="G70" s="32">
+        <v>1</v>
+      </c>
+      <c r="H70" s="32">
+        <v>1</v>
+      </c>
+      <c r="I70" s="31">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="K70" s="20"/>
+      <c r="K70" s="33"/>
       <c r="L70" s="7"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
@@ -3991,36 +4217,36 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="21"/>
+      <c r="S70" s="31"/>
     </row>
     <row r="71" customHeight="1" spans="1:19">
-      <c r="A71" s="23"/>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="32">
         <v>4</v>
       </c>
-      <c r="E71" s="22">
-        <v>1</v>
-      </c>
-      <c r="F71" s="22">
-        <v>1</v>
-      </c>
-      <c r="G71" s="22">
-        <v>1</v>
-      </c>
-      <c r="H71" s="22">
-        <v>1</v>
-      </c>
-      <c r="I71" s="21">
+      <c r="E71" s="32">
+        <v>1</v>
+      </c>
+      <c r="F71" s="32">
+        <v>1</v>
+      </c>
+      <c r="G71" s="32">
+        <v>1</v>
+      </c>
+      <c r="H71" s="32">
+        <v>1</v>
+      </c>
+      <c r="I71" s="31">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K71" s="20"/>
+      <c r="K71" s="33"/>
       <c r="L71" s="7"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -4028,36 +4254,36 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="21"/>
+      <c r="S71" s="31"/>
     </row>
     <row r="72" customHeight="1" spans="1:19">
-      <c r="A72" s="23"/>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="32">
         <v>3</v>
       </c>
-      <c r="E72" s="22">
-        <v>2</v>
-      </c>
-      <c r="F72" s="22">
-        <v>2</v>
-      </c>
-      <c r="G72" s="22">
-        <v>1</v>
-      </c>
-      <c r="H72" s="22">
-        <v>1</v>
-      </c>
-      <c r="I72" s="21">
+      <c r="E72" s="32">
+        <v>2</v>
+      </c>
+      <c r="F72" s="32">
+        <v>2</v>
+      </c>
+      <c r="G72" s="32">
+        <v>1</v>
+      </c>
+      <c r="H72" s="32">
+        <v>1</v>
+      </c>
+      <c r="I72" s="31">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K72" s="20"/>
+      <c r="K72" s="33"/>
       <c r="L72" s="7"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
@@ -4065,38 +4291,38 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
-      <c r="S72" s="21"/>
+      <c r="S72" s="31"/>
     </row>
     <row r="73" customHeight="1" spans="1:19">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="32">
         <v>4</v>
       </c>
-      <c r="E73" s="22">
-        <v>1</v>
-      </c>
-      <c r="F73" s="22">
-        <v>1</v>
-      </c>
-      <c r="G73" s="22">
-        <v>1</v>
-      </c>
-      <c r="H73" s="22">
-        <v>1</v>
-      </c>
-      <c r="I73" s="21">
+      <c r="E73" s="32">
+        <v>1</v>
+      </c>
+      <c r="F73" s="32">
+        <v>1</v>
+      </c>
+      <c r="G73" s="32">
+        <v>1</v>
+      </c>
+      <c r="H73" s="32">
+        <v>1</v>
+      </c>
+      <c r="I73" s="31">
         <f t="shared" ref="I73:I84" si="7">((G73+H73)*0.5)*D73*10*(1+(E73+F73)*0.25)</f>
         <v>60</v>
       </c>
-      <c r="K73" s="20"/>
+      <c r="K73" s="33"/>
       <c r="L73" s="7"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -4104,179 +4330,179 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="21"/>
+      <c r="S73" s="31"/>
     </row>
     <row r="74" customHeight="1" spans="1:19">
-      <c r="A74" s="24"/>
-      <c r="B74" s="21" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="32">
         <v>3</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="32">
         <v>0</v>
       </c>
-      <c r="F74" s="22">
-        <v>1</v>
-      </c>
-      <c r="G74" s="22">
-        <v>1</v>
-      </c>
-      <c r="H74" s="22">
-        <v>1</v>
-      </c>
-      <c r="I74" s="21">
+      <c r="F74" s="32">
+        <v>1</v>
+      </c>
+      <c r="G74" s="32">
+        <v>1</v>
+      </c>
+      <c r="H74" s="32">
+        <v>1</v>
+      </c>
+      <c r="I74" s="31">
         <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
-      <c r="S74" s="21"/>
+      <c r="S74" s="31"/>
     </row>
     <row r="75" customHeight="1" spans="1:9">
-      <c r="A75" s="24"/>
-      <c r="B75" s="21" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="32">
         <v>10</v>
       </c>
-      <c r="E75" s="22">
-        <v>1</v>
-      </c>
-      <c r="F75" s="22">
-        <v>2</v>
-      </c>
-      <c r="G75" s="22">
-        <v>1</v>
-      </c>
-      <c r="H75" s="22">
-        <v>1</v>
-      </c>
-      <c r="I75" s="21">
+      <c r="E75" s="32">
+        <v>1</v>
+      </c>
+      <c r="F75" s="32">
+        <v>2</v>
+      </c>
+      <c r="G75" s="32">
+        <v>1</v>
+      </c>
+      <c r="H75" s="32">
+        <v>1</v>
+      </c>
+      <c r="I75" s="31">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:9">
-      <c r="A76" s="24"/>
-      <c r="B76" s="21" t="s">
+      <c r="A76" s="18"/>
+      <c r="B76" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="22">
-        <v>1</v>
-      </c>
-      <c r="E76" s="22">
+      <c r="D76" s="32">
+        <v>1</v>
+      </c>
+      <c r="E76" s="32">
         <v>0</v>
       </c>
-      <c r="F76" s="22">
-        <v>1</v>
-      </c>
-      <c r="G76" s="22">
-        <v>1</v>
-      </c>
-      <c r="H76" s="22">
-        <v>1</v>
-      </c>
-      <c r="I76" s="21">
+      <c r="F76" s="32">
+        <v>1</v>
+      </c>
+      <c r="G76" s="32">
+        <v>1</v>
+      </c>
+      <c r="H76" s="32">
+        <v>1</v>
+      </c>
+      <c r="I76" s="31">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:9">
-      <c r="A77" s="24"/>
-      <c r="B77" s="21" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="32">
         <v>1.5</v>
       </c>
-      <c r="E77" s="22">
-        <v>1</v>
-      </c>
-      <c r="F77" s="22">
-        <v>2</v>
-      </c>
-      <c r="G77" s="22">
-        <v>1</v>
-      </c>
-      <c r="H77" s="22">
-        <v>1</v>
-      </c>
-      <c r="I77" s="21">
+      <c r="E77" s="32">
+        <v>1</v>
+      </c>
+      <c r="F77" s="32">
+        <v>2</v>
+      </c>
+      <c r="G77" s="32">
+        <v>1</v>
+      </c>
+      <c r="H77" s="32">
+        <v>1</v>
+      </c>
+      <c r="I77" s="31">
         <f t="shared" si="7"/>
         <v>26.25</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:9">
-      <c r="A78" s="24"/>
-      <c r="B78" s="21" t="s">
+      <c r="A78" s="18"/>
+      <c r="B78" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="22">
-        <v>1</v>
-      </c>
-      <c r="E78" s="22">
+      <c r="D78" s="32">
+        <v>1</v>
+      </c>
+      <c r="E78" s="32">
         <v>0</v>
       </c>
-      <c r="F78" s="22">
-        <v>1</v>
-      </c>
-      <c r="G78" s="22">
-        <v>1</v>
-      </c>
-      <c r="H78" s="22">
-        <v>1</v>
-      </c>
-      <c r="I78" s="21">
+      <c r="F78" s="32">
+        <v>1</v>
+      </c>
+      <c r="G78" s="32">
+        <v>1</v>
+      </c>
+      <c r="H78" s="32">
+        <v>1</v>
+      </c>
+      <c r="I78" s="31">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:9">
-      <c r="A79" s="24"/>
-      <c r="B79" s="21" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="32">
         <v>4</v>
       </c>
-      <c r="E79" s="22">
-        <v>2</v>
-      </c>
-      <c r="F79" s="22">
-        <v>2</v>
-      </c>
-      <c r="G79" s="22">
-        <v>1</v>
-      </c>
-      <c r="H79" s="22">
-        <v>1</v>
-      </c>
-      <c r="I79" s="21">
+      <c r="E79" s="32">
+        <v>2</v>
+      </c>
+      <c r="F79" s="32">
+        <v>2</v>
+      </c>
+      <c r="G79" s="32">
+        <v>1</v>
+      </c>
+      <c r="H79" s="32">
+        <v>1</v>
+      </c>
+      <c r="I79" s="31">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -4300,13 +4526,13 @@
       <c r="H80" s="8">
         <v>1</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I80" s="31">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:9">
-      <c r="A81" s="20"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="7" t="s">
         <v>16</v>
       </c>
@@ -4328,13 +4554,13 @@
       <c r="H81" s="8">
         <v>1</v>
       </c>
-      <c r="I81" s="21">
+      <c r="I81" s="31">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:9">
-      <c r="A82" s="20"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="7" t="s">
         <v>15</v>
       </c>
@@ -4356,13 +4582,13 @@
       <c r="H82" s="8">
         <v>1</v>
       </c>
-      <c r="I82" s="21">
+      <c r="I82" s="31">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:9">
-      <c r="A83" s="20"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="7" t="s">
         <v>17</v>
       </c>
@@ -4384,105 +4610,105 @@
       <c r="H83" s="8">
         <v>1</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I83" s="31">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:9">
-      <c r="A84" s="20"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="17">
         <v>4</v>
       </c>
-      <c r="E84" s="19">
-        <v>1</v>
-      </c>
-      <c r="F84" s="19">
-        <v>1</v>
-      </c>
-      <c r="G84" s="19">
-        <v>1</v>
-      </c>
-      <c r="H84" s="19">
-        <v>1</v>
-      </c>
-      <c r="I84" s="26">
+      <c r="E84" s="17">
+        <v>1</v>
+      </c>
+      <c r="F84" s="17">
+        <v>1</v>
+      </c>
+      <c r="G84" s="17">
+        <v>1</v>
+      </c>
+      <c r="H84" s="17">
+        <v>1</v>
+      </c>
+      <c r="I84" s="47">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
-      <c r="A85" s="20"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="4"/>
       <c r="C85" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19">
-        <v>2</v>
-      </c>
-      <c r="G85" s="19">
-        <v>2</v>
-      </c>
-      <c r="H85" s="19">
-        <v>2</v>
-      </c>
-      <c r="I85" s="26"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17">
+        <v>2</v>
+      </c>
+      <c r="G85" s="17">
+        <v>2</v>
+      </c>
+      <c r="H85" s="17">
+        <v>2</v>
+      </c>
+      <c r="I85" s="47"/>
     </row>
     <row r="86" customHeight="1" spans="1:9">
-      <c r="A86" s="20"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="4"/>
       <c r="C86" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17">
         <v>3</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86" s="17">
         <v>3</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="17">
         <v>3</v>
       </c>
-      <c r="I86" s="26"/>
+      <c r="I86" s="47"/>
     </row>
     <row r="87" customHeight="1" spans="1:9">
-      <c r="A87" s="20"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="4"/>
       <c r="C87" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="26"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="47"/>
     </row>
     <row r="88" customHeight="1" spans="1:9">
-      <c r="A88" s="20"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="4"/>
       <c r="C88" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="26"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="47"/>
     </row>
     <row r="89" customHeight="1" spans="1:9">
-      <c r="A89" s="20"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="7" t="s">
         <v>15</v>
       </c>
@@ -4504,13 +4730,13 @@
       <c r="H89" s="8">
         <v>1</v>
       </c>
-      <c r="I89" s="21">
+      <c r="I89" s="31">
         <f>((G89+H89)*0.5)*D89*10*(1+(E89+F89)*0.25)</f>
         <v>35</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
-      <c r="A90" s="20"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="7" t="s">
         <v>15</v>
       </c>
@@ -4532,13 +4758,13 @@
       <c r="H90" s="8">
         <v>1</v>
       </c>
-      <c r="I90" s="21">
+      <c r="I90" s="31">
         <f>((G90+H90)*0.5)*D90*10*(1+(E90+F90)*0.25)</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
-      <c r="A91" s="20"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="7" t="s">
         <v>12</v>
       </c>
@@ -4560,13 +4786,13 @@
       <c r="H91" s="8">
         <v>1</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I91" s="31">
         <f>((G91+H91)*0.5)*D91*10*(1+(E91+F91)*0.25)</f>
         <v>15</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -4590,13 +4816,13 @@
       <c r="H92" s="8">
         <v>1</v>
       </c>
-      <c r="I92" s="21">
+      <c r="I92" s="31">
         <f t="shared" ref="I92:I105" si="8">((G92+H92)*0.5)*D92*10*(1+(E92+F92)*0.25)</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
-      <c r="A93" s="19"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="7" t="s">
         <v>13</v>
       </c>
@@ -4618,13 +4844,13 @@
       <c r="H93" s="8">
         <v>1</v>
       </c>
-      <c r="I93" s="21">
+      <c r="I93" s="31">
         <f t="shared" si="8"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
-      <c r="A94" s="19"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
@@ -4646,13 +4872,13 @@
       <c r="H94" s="8">
         <v>1</v>
       </c>
-      <c r="I94" s="21">
+      <c r="I94" s="31">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:9">
-      <c r="A95" s="19"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="7" t="s">
         <v>15</v>
       </c>
@@ -4674,13 +4900,13 @@
       <c r="H95" s="8">
         <v>1</v>
       </c>
-      <c r="I95" s="21">
+      <c r="I95" s="31">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:9">
-      <c r="A96" s="19"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="7" t="s">
         <v>15</v>
       </c>
@@ -4702,13 +4928,13 @@
       <c r="H96" s="8">
         <v>1</v>
       </c>
-      <c r="I96" s="21">
+      <c r="I96" s="31">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:9">
-      <c r="A97" s="19"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="7" t="s">
         <v>12</v>
       </c>
@@ -4730,13 +4956,13 @@
       <c r="H97" s="8">
         <v>1</v>
       </c>
-      <c r="I97" s="21">
+      <c r="I97" s="31">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:9">
-      <c r="A98" s="19"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="7" t="s">
         <v>12</v>
       </c>
@@ -4758,13 +4984,13 @@
       <c r="H98" s="8">
         <v>1</v>
       </c>
-      <c r="I98" s="21">
+      <c r="I98" s="31">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:9">
-      <c r="A99" s="19"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="7" t="s">
         <v>15</v>
       </c>
@@ -4786,13 +5012,13 @@
       <c r="H99" s="8">
         <v>1</v>
       </c>
-      <c r="I99" s="21">
+      <c r="I99" s="31">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:9">
-      <c r="A100" s="19"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="7" t="s">
         <v>15</v>
       </c>
@@ -4814,13 +5040,13 @@
       <c r="H100" s="8">
         <v>1</v>
       </c>
-      <c r="I100" s="21">
+      <c r="I100" s="31">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:9">
-      <c r="A101" s="19"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="7" t="s">
         <v>14</v>
       </c>
@@ -4842,13 +5068,13 @@
       <c r="H101" s="8">
         <v>1</v>
       </c>
-      <c r="I101" s="21">
+      <c r="I101" s="31">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:9">
-      <c r="A102" s="19"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="7" t="s">
         <v>13</v>
       </c>
@@ -4870,13 +5096,13 @@
       <c r="H102" s="8">
         <v>1</v>
       </c>
-      <c r="I102" s="21">
+      <c r="I102" s="31">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:9">
-      <c r="A103" s="19"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="7" t="s">
         <v>13</v>
       </c>
@@ -4898,19 +5124,19 @@
       <c r="H103" s="8">
         <v>1</v>
       </c>
-      <c r="I103" s="21">
+      <c r="I103" s="31">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="9:9">
-      <c r="I104" s="21">
+      <c r="I104" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="9:9">
-      <c r="I105" s="21">
+      <c r="I105" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4959,10 +5185,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4992,7 +5218,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="15"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
@@ -5061,29 +5287,29 @@
       <c r="H3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="38">
         <f ca="1">SUMIF($B$3:$B$105,I2,$G3:$G45)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
+        <v>45</v>
+      </c>
+      <c r="J3" s="38">
         <f ca="1">SUMIF($B$3:$B$105,J2,$G3:$G45)</f>
-        <v>95.5</v>
-      </c>
-      <c r="K3" s="16">
+        <v>147</v>
+      </c>
+      <c r="K3" s="38">
         <f ca="1">SUMIF($B$3:$B$105,K2,$G3:$G45)</f>
-        <v>60</v>
-      </c>
-      <c r="L3" s="16">
+        <v>308</v>
+      </c>
+      <c r="L3" s="38">
         <f ca="1">SUMIF($B$3:$B$105,L2,$G3:$G45)</f>
-        <v>8.8</v>
-      </c>
-      <c r="M3" s="16">
+        <v>212.8</v>
+      </c>
+      <c r="M3" s="38">
         <f ca="1">SUMIF($B$3:$B$105,M2,$G3:$G45)</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N3">
         <f ca="1">SUM(I3:M3)</f>
-        <v>164.3</v>
+        <v>838.8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:13">
@@ -5110,25 +5336,25 @@
       <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="39">
         <f ca="1">I3/$N3*300</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
+        <v>16.0944206008584</v>
+      </c>
+      <c r="J4" s="39">
         <f ca="1">J3/$N3*300</f>
-        <v>174.376141205113</v>
-      </c>
-      <c r="K4" s="17">
+        <v>52.5751072961373</v>
+      </c>
+      <c r="K4" s="39">
         <f ca="1">K3/$N3*300</f>
-        <v>109.555690809495</v>
-      </c>
-      <c r="L4" s="17">
+        <v>110.157367668097</v>
+      </c>
+      <c r="L4" s="39">
         <f ca="1">L3/$N3*300</f>
-        <v>16.0681679853926</v>
-      </c>
-      <c r="M4" s="17">
+        <v>76.1087267525036</v>
+      </c>
+      <c r="M4" s="39">
         <f ca="1">M3/$N3*300</f>
-        <v>0</v>
+        <v>45.0643776824034</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
@@ -5155,11 +5381,11 @@
       <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="10"/>
@@ -5247,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" ref="G8:G14" si="1">F9*D9*(1+E9)*5</f>
+        <f t="shared" ref="G8:G16" si="1">F9*D9*(1+E9)*5</f>
         <v>60</v>
       </c>
     </row>
@@ -5296,110 +5522,860 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
       <c r="G12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
       <c r="G13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
       <c r="G14" s="8">
         <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="15"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <f>F19*D19*(1+E19)*5</f>
+        <v>5</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="41"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:14">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <f>F20*D20*(1+E20)*5</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:14">
+      <c r="A21" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <f>F21*D21*(1+E21)*5</f>
+        <v>22</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:14">
+      <c r="A22" s="20"/>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <f>F22*D22*(1+E22)*5</f>
+        <v>10</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="6">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="G23" s="22">
+        <f>F23*D23*(1+E23)*5</f>
+        <v>78</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:14">
+      <c r="A24" s="20"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="J24" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="J25" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="41"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:14">
+      <c r="A26" s="20"/>
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="17">
+        <v>3</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="G26" s="27">
+        <f>F26*D26*(1+E26)*5</f>
+        <v>36</v>
+      </c>
+      <c r="J26" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="20"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="20"/>
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" ref="G28:G36" si="2">F28*D28*(1+E28)*5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="20"/>
+      <c r="B29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="20"/>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="29"/>
+      <c r="B31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="G32" s="32">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="32">
+        <v>1</v>
+      </c>
+      <c r="E33" s="32">
+        <v>1</v>
+      </c>
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
+      <c r="G33" s="32">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="32">
+        <v>1</v>
+      </c>
+      <c r="F34" s="32">
+        <v>1</v>
+      </c>
+      <c r="G34" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:12">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="32">
+        <v>2</v>
+      </c>
+      <c r="E35" s="32">
+        <v>1</v>
+      </c>
+      <c r="F35" s="32">
+        <v>1.3</v>
+      </c>
+      <c r="G35" s="32">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:11">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="32">
+        <v>2</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1</v>
+      </c>
+      <c r="F36" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="G36" s="32">
+        <f t="shared" ref="G36:G42" si="3">F36*D36*(1+E36)*5</f>
+        <v>24</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:11">
+      <c r="A37" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="34">
+        <v>6</v>
+      </c>
+      <c r="E37" s="34">
+        <v>1</v>
+      </c>
+      <c r="F37" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="34">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:12">
+      <c r="A38" s="33"/>
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="35">
+        <v>2</v>
+      </c>
+      <c r="E38" s="35">
+        <v>1</v>
+      </c>
+      <c r="F38" s="35">
+        <v>1</v>
+      </c>
+      <c r="G38" s="34">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:11">
+      <c r="A39" s="33"/>
+      <c r="B39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="34">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="33"/>
+      <c r="B40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="34">
+        <v>1</v>
+      </c>
+      <c r="E40" s="34">
+        <v>1</v>
+      </c>
+      <c r="F40" s="34">
+        <v>1</v>
+      </c>
+      <c r="G40" s="34">
+        <f>F40*D40*(1+E40)*5+15</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="33"/>
+      <c r="B41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="34">
+        <v>2</v>
+      </c>
+      <c r="E41" s="34">
+        <v>1</v>
+      </c>
+      <c r="F41" s="34">
+        <v>1</v>
+      </c>
+      <c r="G41" s="34">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="33"/>
+      <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:4">
+      <c r="B45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:4">
+      <c r="B46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:4">
+      <c r="B47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:3">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:3">
+      <c r="B51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="36">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:M1"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J26:N26"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G27"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/成员分.xlsx
+++ b/docs/成员分.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>日贡献评分</t>
   </si>
@@ -508,6 +508,9 @@
     <t>修复ascii码导致的文件名显示问题（遗留问题）</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>讨论版界面</t>
   </si>
   <si>
@@ -542,9 +545,6 @@
     <t>获取帖子/跟帖信息功能</t>
   </si>
   <si>
-    <t>明日任务</t>
-  </si>
-  <si>
     <t>用户/课程贡献度</t>
   </si>
   <si>
@@ -616,62 +616,176 @@
     <t>发布跟帖界面与接口衔接</t>
   </si>
   <si>
-    <t>方科栋2 举报 配置npm</t>
-  </si>
-  <si>
     <t>解决资源名过长的问题</t>
-  </si>
-  <si>
-    <t>张安澜2.5 三个接口</t>
   </si>
   <si>
     <t>2017/12/5
 (二)</t>
   </si>
   <si>
-    <t>辛德泰8 衔接完毕</t>
-  </si>
-  <si>
     <t>资源分类功能</t>
   </si>
   <si>
-    <t>赵奕2 资源评价相关</t>
-  </si>
-  <si>
     <t>按类别获取课程（接口文档变更）</t>
   </si>
   <si>
     <t>jmeter测试（+3BUG）</t>
   </si>
   <si>
+    <t>今日任务</t>
+  </si>
+  <si>
+    <t>明日任务</t>
+  </si>
+  <si>
     <t>帖子显示html问题解决</t>
   </si>
   <si>
-    <t>消息功能学习</t>
-  </si>
-  <si>
-    <t>审核功能</t>
-  </si>
-  <si>
-    <t>讨论版界面接口衔接</t>
-  </si>
-  <si>
-    <t>帖子界面接口衔接</t>
-  </si>
-  <si>
-    <t>邮箱认证</t>
-  </si>
-  <si>
-    <t>课程收藏功能</t>
-  </si>
-  <si>
-    <t>课程收藏评分显示</t>
-  </si>
-  <si>
-    <t>认证登录部分</t>
-  </si>
-  <si>
-    <t>课程举报</t>
+    <t>邮箱认证功能</t>
+  </si>
+  <si>
+    <t>压力测试</t>
+  </si>
+  <si>
+    <t>2017/12/7
+(四)</t>
+  </si>
+  <si>
+    <t>获取热门帖子</t>
+  </si>
+  <si>
+    <t>课程收藏/资源收藏</t>
+  </si>
+  <si>
+    <t>热门资源接口 1h</t>
+  </si>
+  <si>
+    <t>第三方接口</t>
+  </si>
+  <si>
+    <t>首页原型设计</t>
+  </si>
+  <si>
+    <t>用户头像/资源BUG 2h</t>
+  </si>
+  <si>
+    <t>纯文本</t>
+  </si>
+  <si>
+    <t>2017/12/8
+(五)</t>
+  </si>
+  <si>
+    <t>热门资源功能</t>
+  </si>
+  <si>
+    <t>用户头像（预计4h）</t>
+  </si>
+  <si>
+    <t>测试工作（+5BUG）</t>
+  </si>
+  <si>
+    <t>2017/12/9
+(六)
+2017/12/10
+(日)</t>
+  </si>
+  <si>
+    <t>测试工作（+2BUG）</t>
+  </si>
+  <si>
+    <t>课程最热资源ID</t>
+  </si>
+  <si>
+    <t>follow纯文本简介</t>
+  </si>
+  <si>
+    <t>资源评分功能衔接（界面优化）</t>
+  </si>
+  <si>
+    <t>用户个人资料编辑功能</t>
+  </si>
+  <si>
+    <t>贡献度衔接</t>
+  </si>
+  <si>
+    <t>2017/12/11
+(一)</t>
+  </si>
+  <si>
+    <t>测试工作</t>
+  </si>
+  <si>
+    <t>同袍认证接口</t>
+  </si>
+  <si>
+    <t>2017/12/12
+(二)</t>
+  </si>
+  <si>
+    <t>忘记密码/密码修改</t>
+  </si>
+  <si>
+    <t>将系号改为学院名</t>
+  </si>
+  <si>
+    <t>2017/12/13
+(三)</t>
+  </si>
+  <si>
+    <t>帖子纯文本衔接</t>
+  </si>
+  <si>
+    <t>课程收藏衔接</t>
+  </si>
+  <si>
+    <t>发布后</t>
+  </si>
+  <si>
+    <t>课程分类前端衔接</t>
+  </si>
+  <si>
+    <t>课程收藏前后端</t>
+  </si>
+  <si>
+    <t>同袍验证</t>
+  </si>
+  <si>
+    <t>测试（+3BUG）</t>
+  </si>
+  <si>
+    <t>院系最新/最热资源接口</t>
+  </si>
+  <si>
+    <t>功能测试</t>
+  </si>
+  <si>
+    <t>收藏功能测试，获取最大负载量</t>
+  </si>
+  <si>
+    <t>提高进程数的压力测试</t>
+  </si>
+  <si>
+    <t>2017/12/29
+(五)</t>
+  </si>
+  <si>
+    <t>资源搜索功能</t>
+  </si>
+  <si>
+    <t>Beta展示博客</t>
+  </si>
+  <si>
+    <t>邮箱认证前端衔接</t>
+  </si>
+  <si>
+    <t>contri优化后的压力测试</t>
+  </si>
+  <si>
+    <t>优化contri</t>
+  </si>
+  <si>
+    <t>注册后自动登录</t>
   </si>
 </sst>
 </file>
@@ -679,12 +793,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -717,13 +831,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -746,59 +853,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -806,60 +861,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,11 +882,124 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -910,49 +1024,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,13 +1060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,25 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,25 +1132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,19 +1162,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,11 +1307,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,11 +1339,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,6 +1360,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,41 +1394,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,10 +1412,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,133 +1424,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1501,30 +1615,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1534,61 +1645,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1600,8 +1711,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1956,8 +2070,8 @@
   <sheetPr/>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1"/>
@@ -1966,7 +2080,7 @@
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
     <col min="4" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.2833333333333" customWidth="1"/>
     <col min="9" max="9" width="9.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
     <col min="11" max="16" width="9.5" customWidth="1"/>
@@ -2000,16 +2114,16 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="51"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A2" s="4" t="s">
@@ -2114,27 +2228,27 @@
       <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="35">
         <f>SUMIF($B$3:$B$105,K2,$I$3:$I$105)</f>
         <v>653.75</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="35">
         <f>SUMIF($B$3:$B$105,L2,$I$3:$I$105)</f>
         <v>606</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="35">
         <f>SUMIF($B$3:$B$105,M2,$I$3:$I$105)</f>
         <v>862.5</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="35">
         <f>SUMIF($B$3:$B$105,N2,$I$3:$I$105)</f>
         <v>663</v>
       </c>
-      <c r="O3" s="38">
+      <c r="O3" s="35">
         <f>SUMIF($B$3:$B$105,O2,$I$3:$I$105)</f>
         <v>622.25</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="35">
         <f>SUMIF($B$3:$B$105,P2,$I$3:$I$105)</f>
         <v>652.5</v>
       </c>
@@ -2142,19 +2256,19 @@
         <f ca="1">SUM(K3:P3)</f>
         <v>4060</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="54" t="s">
+      <c r="R3" s="52"/>
+      <c r="S3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="35">
-        <v>2</v>
-      </c>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
+      <c r="U3" s="54">
+        <v>2</v>
+      </c>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
     </row>
     <row r="4" customHeight="1" spans="1:24">
       <c r="A4" s="17"/>
@@ -2186,27 +2300,27 @@
       <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="36">
         <f ca="1">K3/$Q3*300</f>
         <v>48.3066502463054</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="36">
         <f ca="1">L3/$Q3*300</f>
         <v>44.7783251231527</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="36">
         <f ca="1" t="shared" ref="K4:P4" si="1">M3/$Q3*300</f>
         <v>63.7315270935961</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="36">
         <f ca="1" t="shared" si="1"/>
         <v>48.9901477832512</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="36">
         <f ca="1" t="shared" si="1"/>
         <v>45.9790640394089</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="36">
         <f ca="1" t="shared" si="1"/>
         <v>48.2142857142857</v>
       </c>
@@ -2214,13 +2328,13 @@
         <f ca="1">SUM(K4:P4)</f>
         <v>300</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
     </row>
     <row r="5" customHeight="1" spans="1:24">
       <c r="A5" s="17"/>
@@ -2252,31 +2366,31 @@
       <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="36">
         <v>48</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="36">
         <v>45</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="36">
         <v>64</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="36">
         <v>50</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="36">
         <v>46</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="36">
         <v>47</v>
       </c>
-      <c r="R5" s="44"/>
+      <c r="R5" s="41"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
     </row>
     <row r="6" customHeight="1" spans="1:24">
       <c r="A6" s="17"/>
@@ -2305,13 +2419,13 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="R6" s="44"/>
+      <c r="R6" s="41"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
     </row>
     <row r="7" customHeight="1" spans="1:24">
       <c r="A7" s="17"/>
@@ -2340,16 +2454,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R7" s="44"/>
+      <c r="R7" s="41"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
     </row>
     <row r="8" customHeight="1" spans="1:24">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2377,16 +2491,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="R8" s="44"/>
+      <c r="R8" s="41"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
     </row>
     <row r="9" customHeight="1" spans="1:24">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2412,16 +2526,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R9" s="44"/>
+      <c r="R9" s="41"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
     </row>
     <row r="10" customHeight="1" spans="1:24">
-      <c r="A10" s="33"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2447,16 +2561,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R10" s="44"/>
+      <c r="R10" s="41"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
     </row>
     <row r="11" customHeight="1" spans="1:24">
-      <c r="A11" s="33"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2482,576 +2596,576 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R11" s="44"/>
+      <c r="R11" s="41"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
     </row>
     <row r="12" customHeight="1" spans="1:24">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="20">
         <v>5</v>
       </c>
-      <c r="E12" s="32">
-        <v>1</v>
-      </c>
-      <c r="F12" s="32">
-        <v>1</v>
-      </c>
-      <c r="G12" s="32">
-        <v>1</v>
-      </c>
-      <c r="H12" s="32">
-        <v>1</v>
-      </c>
-      <c r="I12" s="31">
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1</v>
+      </c>
+      <c r="I12" s="30">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="R12" s="44"/>
+      <c r="R12" s="41"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
     </row>
     <row r="13" customHeight="1" spans="1:24">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="32">
-        <v>1</v>
-      </c>
-      <c r="E13" s="32">
-        <v>1</v>
-      </c>
-      <c r="F13" s="32">
-        <v>1</v>
-      </c>
-      <c r="G13" s="32">
-        <v>1</v>
-      </c>
-      <c r="H13" s="32">
-        <v>1</v>
-      </c>
-      <c r="I13" s="31">
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1</v>
+      </c>
+      <c r="I13" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R13" s="44"/>
+      <c r="R13" s="41"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
     </row>
     <row r="14" customHeight="1" spans="1:24">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="20">
         <v>4</v>
       </c>
-      <c r="E14" s="32">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32">
-        <v>1</v>
-      </c>
-      <c r="G14" s="32">
-        <v>1</v>
-      </c>
-      <c r="H14" s="32">
-        <v>1</v>
-      </c>
-      <c r="I14" s="31">
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="30">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R14" s="44"/>
+      <c r="R14" s="41"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
     </row>
     <row r="15" customHeight="1" spans="1:24">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="20">
         <v>4</v>
       </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="F15" s="32">
-        <v>2</v>
-      </c>
-      <c r="G15" s="32">
-        <v>1</v>
-      </c>
-      <c r="H15" s="32">
-        <v>1</v>
-      </c>
-      <c r="I15" s="31">
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20">
+        <v>2</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="R15" s="44"/>
+      <c r="R15" s="41"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
     </row>
     <row r="16" customHeight="1" spans="1:24">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="32">
-        <v>2</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
         <v>0</v>
       </c>
-      <c r="F16" s="32">
-        <v>1</v>
-      </c>
-      <c r="G16" s="32">
-        <v>1</v>
-      </c>
-      <c r="H16" s="32">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31">
+      <c r="F16" s="20">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="R16" s="44"/>
+      <c r="R16" s="41"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
     </row>
     <row r="17" customHeight="1" spans="1:24">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="32">
-        <v>1</v>
-      </c>
-      <c r="E17" s="32">
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20">
         <v>0</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="20">
         <v>0</v>
       </c>
-      <c r="G17" s="32">
-        <v>1</v>
-      </c>
-      <c r="H17" s="32">
-        <v>1</v>
-      </c>
-      <c r="I17" s="31">
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1</v>
+      </c>
+      <c r="I17" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R17" s="44"/>
+      <c r="R17" s="41"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
     </row>
     <row r="18" customHeight="1" spans="1:24">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="20">
         <v>4</v>
       </c>
-      <c r="E18" s="32">
-        <v>1</v>
-      </c>
-      <c r="F18" s="32">
-        <v>1</v>
-      </c>
-      <c r="G18" s="32">
-        <v>1</v>
-      </c>
-      <c r="H18" s="32">
-        <v>1</v>
-      </c>
-      <c r="I18" s="31">
+      <c r="E18" s="20">
+        <v>1</v>
+      </c>
+      <c r="F18" s="20">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1</v>
+      </c>
+      <c r="I18" s="30">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R18" s="44"/>
+      <c r="R18" s="41"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
     </row>
     <row r="19" customHeight="1" spans="1:24">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="32">
-        <v>2</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20">
         <v>0</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="20">
         <v>0</v>
       </c>
-      <c r="G19" s="32">
-        <v>1</v>
-      </c>
-      <c r="H19" s="32">
-        <v>1</v>
-      </c>
-      <c r="I19" s="31">
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1</v>
+      </c>
+      <c r="I19" s="30">
         <f t="shared" ref="I19:I25" si="2">((G19+H19)*0.5)*D19*10*(1+(E19+F19)*0.25)</f>
         <v>20</v>
       </c>
-      <c r="R19" s="44"/>
+      <c r="R19" s="41"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="32">
-        <v>2</v>
-      </c>
-      <c r="E20" s="32">
-        <v>1</v>
-      </c>
-      <c r="F20" s="32">
-        <v>1</v>
-      </c>
-      <c r="G20" s="32">
-        <v>1</v>
-      </c>
-      <c r="H20" s="32">
-        <v>1</v>
-      </c>
-      <c r="I20" s="31">
+      <c r="D20" s="20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="30">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="32">
-        <v>2</v>
-      </c>
-      <c r="E21" s="32">
-        <v>1</v>
-      </c>
-      <c r="F21" s="32">
-        <v>1</v>
-      </c>
-      <c r="G21" s="32">
-        <v>1</v>
-      </c>
-      <c r="H21" s="32">
-        <v>1</v>
-      </c>
-      <c r="I21" s="31">
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1</v>
+      </c>
+      <c r="I21" s="30">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="20">
         <v>4</v>
       </c>
-      <c r="E22" s="32">
-        <v>1</v>
-      </c>
-      <c r="F22" s="32">
-        <v>2</v>
-      </c>
-      <c r="G22" s="32">
-        <v>1</v>
-      </c>
-      <c r="H22" s="32">
-        <v>1</v>
-      </c>
-      <c r="I22" s="31">
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="20">
+        <v>2</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1</v>
+      </c>
+      <c r="I22" s="30">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="32">
-        <v>1</v>
-      </c>
-      <c r="E23" s="32">
-        <v>2</v>
-      </c>
-      <c r="F23" s="32">
-        <v>2</v>
-      </c>
-      <c r="G23" s="32">
-        <v>1</v>
-      </c>
-      <c r="H23" s="32">
-        <v>1</v>
-      </c>
-      <c r="I23" s="31">
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20">
+        <v>2</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+      <c r="I23" s="30">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="32">
-        <v>1</v>
-      </c>
-      <c r="E24" s="32">
-        <v>2</v>
-      </c>
-      <c r="F24" s="32">
-        <v>2</v>
-      </c>
-      <c r="G24" s="32">
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2</v>
+      </c>
+      <c r="F24" s="20">
+        <v>2</v>
+      </c>
+      <c r="G24" s="20">
         <v>0.6</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="20">
         <v>0.6</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="30">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="20">
         <v>0.5</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="20">
         <v>0</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="20">
         <v>0</v>
       </c>
-      <c r="G25" s="32">
-        <v>1</v>
-      </c>
-      <c r="H25" s="32">
-        <v>1</v>
-      </c>
-      <c r="I25" s="31">
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="30">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="20">
         <v>3</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="20">
         <v>0</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="20">
         <v>0</v>
       </c>
-      <c r="G26" s="32">
-        <v>1</v>
-      </c>
-      <c r="H26" s="32">
-        <v>1</v>
-      </c>
-      <c r="I26" s="31">
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20">
+        <v>1</v>
+      </c>
+      <c r="I26" s="30">
         <f t="shared" ref="I26:I36" si="3">((G26+H26)*0.5)*D26*10*(1+(E26+F26)*0.25)</f>
         <v>30</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="18"/>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="20">
         <v>8</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="20">
         <v>0</v>
       </c>
-      <c r="F27" s="32">
-        <v>1</v>
-      </c>
-      <c r="G27" s="32">
-        <v>1</v>
-      </c>
-      <c r="H27" s="32">
-        <v>1</v>
-      </c>
-      <c r="I27" s="31">
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="30">
         <v>100</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:9">
       <c r="A28" s="18"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="20">
         <v>6</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="20">
         <v>0</v>
       </c>
-      <c r="F28" s="32">
-        <v>1</v>
-      </c>
-      <c r="G28" s="32">
-        <v>1</v>
-      </c>
-      <c r="H28" s="32">
-        <v>1</v>
-      </c>
-      <c r="I28" s="31">
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20">
+        <v>1</v>
+      </c>
+      <c r="I28" s="30">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="18"/>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="20">
         <v>0.5</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="20">
         <v>0</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="20">
         <v>0</v>
       </c>
-      <c r="G29" s="32">
-        <v>1</v>
-      </c>
-      <c r="H29" s="32">
-        <v>1</v>
-      </c>
-      <c r="I29" s="31">
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20">
+        <v>1</v>
+      </c>
+      <c r="I29" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -3060,350 +3174,350 @@
       <c r="A30" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="20">
         <v>6</v>
       </c>
-      <c r="E30" s="32">
-        <v>1</v>
-      </c>
-      <c r="F30" s="32">
-        <v>1</v>
-      </c>
-      <c r="G30" s="32">
-        <v>1</v>
-      </c>
-      <c r="H30" s="32">
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20">
         <v>0.8</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="30">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:9">
       <c r="A31" s="18"/>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="20">
         <v>4</v>
       </c>
-      <c r="E31" s="32">
-        <v>1</v>
-      </c>
-      <c r="F31" s="32">
-        <v>2</v>
-      </c>
-      <c r="G31" s="32">
-        <v>1</v>
-      </c>
-      <c r="H31" s="32">
-        <v>1</v>
-      </c>
-      <c r="I31" s="31">
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20">
+        <v>2</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20">
+        <v>1</v>
+      </c>
+      <c r="I31" s="30">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:9">
       <c r="A32" s="18"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="20">
         <v>3</v>
       </c>
-      <c r="E32" s="32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="32">
-        <v>2</v>
-      </c>
-      <c r="G32" s="32">
-        <v>1</v>
-      </c>
-      <c r="H32" s="32">
-        <v>1</v>
-      </c>
-      <c r="I32" s="31">
+      <c r="E32" s="20">
+        <v>2</v>
+      </c>
+      <c r="F32" s="20">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20">
+        <v>1</v>
+      </c>
+      <c r="H32" s="20">
+        <v>1</v>
+      </c>
+      <c r="I32" s="30">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
       <c r="A33" s="18"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="32">
-        <v>2</v>
-      </c>
-      <c r="E33" s="32">
+      <c r="D33" s="20">
+        <v>2</v>
+      </c>
+      <c r="E33" s="20">
         <v>0</v>
       </c>
-      <c r="F33" s="32">
-        <v>1</v>
-      </c>
-      <c r="G33" s="32">
-        <v>1</v>
-      </c>
-      <c r="H33" s="32">
-        <v>1</v>
-      </c>
-      <c r="I33" s="31">
+      <c r="F33" s="20">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="20">
+        <v>1</v>
+      </c>
+      <c r="I33" s="30">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:9">
       <c r="A34" s="18"/>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="32">
-        <v>1</v>
-      </c>
-      <c r="E34" s="32">
+      <c r="D34" s="20">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20">
         <v>0</v>
       </c>
-      <c r="F34" s="32">
-        <v>1</v>
-      </c>
-      <c r="G34" s="32">
-        <v>1</v>
-      </c>
-      <c r="H34" s="32">
-        <v>1</v>
-      </c>
-      <c r="I34" s="31">
+      <c r="F34" s="20">
+        <v>1</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1</v>
+      </c>
+      <c r="H34" s="20">
+        <v>1</v>
+      </c>
+      <c r="I34" s="30">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:9">
       <c r="A35" s="18"/>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="20">
         <v>4.5</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="20">
         <v>0</v>
       </c>
-      <c r="F35" s="32">
-        <v>1</v>
-      </c>
-      <c r="G35" s="32">
-        <v>1</v>
-      </c>
-      <c r="H35" s="32">
-        <v>1</v>
-      </c>
-      <c r="I35" s="31">
+      <c r="F35" s="20">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20">
+        <v>1</v>
+      </c>
+      <c r="H35" s="20">
+        <v>1</v>
+      </c>
+      <c r="I35" s="30">
         <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="20">
         <v>1.5</v>
       </c>
-      <c r="E36" s="32">
-        <v>2</v>
-      </c>
-      <c r="F36" s="32">
-        <v>2</v>
-      </c>
-      <c r="G36" s="32">
-        <v>1</v>
-      </c>
-      <c r="H36" s="32">
-        <v>1</v>
-      </c>
-      <c r="I36" s="31">
+      <c r="E36" s="20">
+        <v>2</v>
+      </c>
+      <c r="F36" s="20">
+        <v>2</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1</v>
+      </c>
+      <c r="H36" s="20">
+        <v>1</v>
+      </c>
+      <c r="I36" s="30">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:9">
       <c r="A37" s="18"/>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="20">
         <v>6</v>
       </c>
-      <c r="E37" s="32">
-        <v>1</v>
-      </c>
-      <c r="F37" s="32">
-        <v>2</v>
-      </c>
-      <c r="G37" s="32">
-        <v>1</v>
-      </c>
-      <c r="H37" s="32">
-        <v>1</v>
-      </c>
-      <c r="I37" s="31">
+      <c r="E37" s="20">
+        <v>1</v>
+      </c>
+      <c r="F37" s="20">
+        <v>2</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1</v>
+      </c>
+      <c r="H37" s="20">
+        <v>1</v>
+      </c>
+      <c r="I37" s="30">
         <f t="shared" ref="I37:I44" si="4">((G37+H37)*0.5)*D37*10*(1+(E37+F37)*0.25)</f>
         <v>105</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
       <c r="A38" s="18"/>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="32">
-        <v>2</v>
-      </c>
-      <c r="E38" s="32">
-        <v>1</v>
-      </c>
-      <c r="F38" s="32">
-        <v>1</v>
-      </c>
-      <c r="G38" s="32">
-        <v>1</v>
-      </c>
-      <c r="H38" s="32">
-        <v>1</v>
-      </c>
-      <c r="I38" s="31">
+      <c r="D38" s="20">
+        <v>2</v>
+      </c>
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20">
+        <v>1</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1</v>
+      </c>
+      <c r="H38" s="20">
+        <v>1</v>
+      </c>
+      <c r="I38" s="30">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
       <c r="A39" s="18"/>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="32">
-        <v>1</v>
-      </c>
-      <c r="E39" s="32">
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+      <c r="E39" s="20">
         <v>0</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="20">
         <v>0</v>
       </c>
-      <c r="G39" s="32">
-        <v>1</v>
-      </c>
-      <c r="H39" s="32">
-        <v>1</v>
-      </c>
-      <c r="I39" s="31">
+      <c r="G39" s="20">
+        <v>1</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1</v>
+      </c>
+      <c r="I39" s="30">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
       <c r="A40" s="18"/>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="20">
         <v>0.5</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="20">
         <v>0</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="20">
         <v>0</v>
       </c>
-      <c r="G40" s="32">
-        <v>1</v>
-      </c>
-      <c r="H40" s="32">
-        <v>1</v>
-      </c>
-      <c r="I40" s="31">
+      <c r="G40" s="20">
+        <v>1</v>
+      </c>
+      <c r="H40" s="20">
+        <v>1</v>
+      </c>
+      <c r="I40" s="30">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="20">
         <v>6</v>
       </c>
-      <c r="E41" s="32">
-        <v>1</v>
-      </c>
-      <c r="F41" s="32">
-        <v>2</v>
-      </c>
-      <c r="G41" s="32">
-        <v>1</v>
-      </c>
-      <c r="H41" s="32">
-        <v>1</v>
-      </c>
-      <c r="I41" s="31">
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20">
+        <v>2</v>
+      </c>
+      <c r="G41" s="20">
+        <v>1</v>
+      </c>
+      <c r="H41" s="20">
+        <v>1</v>
+      </c>
+      <c r="I41" s="30">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
       <c r="A42" s="18"/>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="18">
@@ -3421,15 +3535,15 @@
       <c r="H42" s="18">
         <v>1</v>
       </c>
-      <c r="I42" s="48">
+      <c r="I42" s="47">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:9">
       <c r="A43" s="18"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="18"/>
@@ -3437,12 +3551,12 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="48"/>
+      <c r="I43" s="47"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
       <c r="A44" s="18"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="18"/>
@@ -3450,12 +3564,12 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="48"/>
+      <c r="I44" s="47"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
       <c r="A45" s="18"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="18"/>
@@ -3463,12 +3577,12 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="48"/>
+      <c r="I45" s="47"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
       <c r="A46" s="18"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="32" t="s">
+      <c r="B46" s="33"/>
+      <c r="C46" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="18"/>
@@ -3476,258 +3590,258 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="48"/>
+      <c r="I46" s="47"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
       <c r="A47" s="18"/>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="20">
         <v>4</v>
       </c>
-      <c r="E47" s="32">
-        <v>1</v>
-      </c>
-      <c r="F47" s="32">
-        <v>2</v>
-      </c>
-      <c r="G47" s="32">
-        <v>1</v>
-      </c>
-      <c r="H47" s="32">
-        <v>1</v>
-      </c>
-      <c r="I47" s="31">
+      <c r="E47" s="20">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20">
+        <v>2</v>
+      </c>
+      <c r="G47" s="20">
+        <v>1</v>
+      </c>
+      <c r="H47" s="20">
+        <v>1</v>
+      </c>
+      <c r="I47" s="30">
         <f t="shared" ref="I47:I53" si="5">((G47+H47)*0.5)*D47*10*(1+(E47+F47)*0.25)</f>
         <v>70</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:9">
       <c r="A48" s="18"/>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="32">
-        <v>2</v>
-      </c>
-      <c r="E48" s="32">
-        <v>1</v>
-      </c>
-      <c r="F48" s="32">
-        <v>1</v>
-      </c>
-      <c r="G48" s="32">
-        <v>1</v>
-      </c>
-      <c r="H48" s="32">
-        <v>1</v>
-      </c>
-      <c r="I48" s="31">
+      <c r="D48" s="20">
+        <v>2</v>
+      </c>
+      <c r="E48" s="20">
+        <v>1</v>
+      </c>
+      <c r="F48" s="20">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20">
+        <v>1</v>
+      </c>
+      <c r="H48" s="20">
+        <v>1</v>
+      </c>
+      <c r="I48" s="30">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:9">
       <c r="A49" s="18"/>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="20">
         <v>0.5</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="20">
         <v>0</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="20">
         <v>0</v>
       </c>
-      <c r="G49" s="32">
-        <v>1</v>
-      </c>
-      <c r="H49" s="32">
-        <v>1</v>
-      </c>
-      <c r="I49" s="31">
+      <c r="G49" s="20">
+        <v>1</v>
+      </c>
+      <c r="H49" s="20">
+        <v>1</v>
+      </c>
+      <c r="I49" s="30">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="20">
         <v>8</v>
       </c>
-      <c r="E50" s="32">
-        <v>1</v>
-      </c>
-      <c r="F50" s="32">
-        <v>2</v>
-      </c>
-      <c r="G50" s="32">
-        <v>1</v>
-      </c>
-      <c r="H50" s="32">
-        <v>1</v>
-      </c>
-      <c r="I50" s="49">
+      <c r="E50" s="20">
+        <v>1</v>
+      </c>
+      <c r="F50" s="20">
+        <v>2</v>
+      </c>
+      <c r="G50" s="20">
+        <v>1</v>
+      </c>
+      <c r="H50" s="20">
+        <v>1</v>
+      </c>
+      <c r="I50" s="48">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:9">
       <c r="A51" s="18"/>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="32">
-        <v>2</v>
-      </c>
-      <c r="E51" s="32">
-        <v>1</v>
-      </c>
-      <c r="F51" s="32">
-        <v>1</v>
-      </c>
-      <c r="G51" s="32">
-        <v>1</v>
-      </c>
-      <c r="H51" s="32">
-        <v>1</v>
-      </c>
-      <c r="I51" s="31">
+      <c r="D51" s="20">
+        <v>2</v>
+      </c>
+      <c r="E51" s="20">
+        <v>1</v>
+      </c>
+      <c r="F51" s="20">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
+      <c r="H51" s="20">
+        <v>1</v>
+      </c>
+      <c r="I51" s="30">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:9">
       <c r="A52" s="18"/>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="32">
-        <v>1</v>
-      </c>
-      <c r="E52" s="32">
-        <v>2</v>
-      </c>
-      <c r="F52" s="32">
-        <v>2</v>
-      </c>
-      <c r="G52" s="32">
-        <v>1</v>
-      </c>
-      <c r="H52" s="32">
-        <v>1</v>
-      </c>
-      <c r="I52" s="31">
+      <c r="D52" s="20">
+        <v>1</v>
+      </c>
+      <c r="E52" s="20">
+        <v>2</v>
+      </c>
+      <c r="F52" s="20">
+        <v>2</v>
+      </c>
+      <c r="G52" s="20">
+        <v>1</v>
+      </c>
+      <c r="H52" s="20">
+        <v>1</v>
+      </c>
+      <c r="I52" s="30">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:9">
       <c r="A53" s="18"/>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="32">
-        <v>2</v>
-      </c>
-      <c r="E53" s="32">
+      <c r="D53" s="20">
+        <v>2</v>
+      </c>
+      <c r="E53" s="20">
         <v>0</v>
       </c>
-      <c r="F53" s="32">
-        <v>1</v>
-      </c>
-      <c r="G53" s="32">
-        <v>1</v>
-      </c>
-      <c r="H53" s="32">
-        <v>1</v>
-      </c>
-      <c r="I53" s="31">
+      <c r="F53" s="20">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20">
+        <v>1</v>
+      </c>
+      <c r="H53" s="20">
+        <v>1</v>
+      </c>
+      <c r="I53" s="30">
         <f t="shared" ref="I53:I72" si="6">((G53+H53)*0.5)*D53*10*(1+(E53+F53)*0.25)</f>
         <v>25</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:9">
       <c r="A54" s="18"/>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="32">
-        <v>1</v>
-      </c>
-      <c r="E54" s="32">
-        <v>2</v>
-      </c>
-      <c r="F54" s="32">
-        <v>2</v>
-      </c>
-      <c r="G54" s="32">
-        <v>1</v>
-      </c>
-      <c r="H54" s="32">
+      <c r="D54" s="20">
+        <v>1</v>
+      </c>
+      <c r="E54" s="20">
+        <v>2</v>
+      </c>
+      <c r="F54" s="20">
+        <v>2</v>
+      </c>
+      <c r="G54" s="20">
+        <v>1</v>
+      </c>
+      <c r="H54" s="20">
         <v>0.8</v>
       </c>
-      <c r="I54" s="31">
+      <c r="I54" s="30">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:11">
       <c r="A55" s="18"/>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="32">
-        <v>2</v>
-      </c>
-      <c r="E55" s="32">
-        <v>1</v>
-      </c>
-      <c r="F55" s="32">
-        <v>1</v>
-      </c>
-      <c r="G55" s="32">
-        <v>1</v>
-      </c>
-      <c r="H55" s="32">
-        <v>1</v>
-      </c>
-      <c r="I55" s="31">
+      <c r="D55" s="20">
+        <v>2</v>
+      </c>
+      <c r="E55" s="20">
+        <v>1</v>
+      </c>
+      <c r="F55" s="20">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20">
+        <v>1</v>
+      </c>
+      <c r="H55" s="20">
+        <v>1</v>
+      </c>
+      <c r="I55" s="30">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
@@ -3736,31 +3850,31 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:12">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="32">
-        <v>1</v>
-      </c>
-      <c r="E56" s="32">
+      <c r="D56" s="20">
+        <v>1</v>
+      </c>
+      <c r="E56" s="20">
         <v>0</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="20">
         <v>0</v>
       </c>
-      <c r="G56" s="32">
-        <v>1</v>
-      </c>
-      <c r="H56" s="32">
-        <v>1</v>
-      </c>
-      <c r="I56" s="31">
+      <c r="G56" s="20">
+        <v>1</v>
+      </c>
+      <c r="H56" s="20">
+        <v>1</v>
+      </c>
+      <c r="I56" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3773,258 +3887,258 @@
     </row>
     <row r="57" customHeight="1" spans="1:9">
       <c r="A57" s="18"/>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="32">
-        <v>2</v>
-      </c>
-      <c r="E57" s="32">
-        <v>2</v>
-      </c>
-      <c r="F57" s="32">
-        <v>2</v>
-      </c>
-      <c r="G57" s="32">
-        <v>1</v>
-      </c>
-      <c r="H57" s="32">
-        <v>1</v>
-      </c>
-      <c r="I57" s="31">
+      <c r="D57" s="20">
+        <v>2</v>
+      </c>
+      <c r="E57" s="20">
+        <v>2</v>
+      </c>
+      <c r="F57" s="20">
+        <v>2</v>
+      </c>
+      <c r="G57" s="20">
+        <v>1</v>
+      </c>
+      <c r="H57" s="20">
+        <v>1</v>
+      </c>
+      <c r="I57" s="30">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:9">
       <c r="A58" s="18"/>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="20">
         <v>3</v>
       </c>
-      <c r="E58" s="32">
-        <v>1</v>
-      </c>
-      <c r="F58" s="32">
-        <v>1</v>
-      </c>
-      <c r="G58" s="32">
-        <v>1</v>
-      </c>
-      <c r="H58" s="32">
-        <v>1</v>
-      </c>
-      <c r="I58" s="31">
+      <c r="E58" s="20">
+        <v>1</v>
+      </c>
+      <c r="F58" s="20">
+        <v>1</v>
+      </c>
+      <c r="G58" s="20">
+        <v>1</v>
+      </c>
+      <c r="H58" s="20">
+        <v>1</v>
+      </c>
+      <c r="I58" s="30">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:9">
       <c r="A59" s="18"/>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="32">
-        <v>1</v>
-      </c>
-      <c r="E59" s="32">
+      <c r="D59" s="20">
+        <v>1</v>
+      </c>
+      <c r="E59" s="20">
         <v>0</v>
       </c>
-      <c r="F59" s="32">
-        <v>1</v>
-      </c>
-      <c r="G59" s="32">
-        <v>1</v>
-      </c>
-      <c r="H59" s="32">
-        <v>1</v>
-      </c>
-      <c r="I59" s="31">
+      <c r="F59" s="20">
+        <v>1</v>
+      </c>
+      <c r="G59" s="20">
+        <v>1</v>
+      </c>
+      <c r="H59" s="20">
+        <v>1</v>
+      </c>
+      <c r="I59" s="30">
         <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:9">
       <c r="A60" s="18"/>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="20">
         <v>3</v>
       </c>
-      <c r="E60" s="32">
-        <v>1</v>
-      </c>
-      <c r="F60" s="32">
-        <v>1</v>
-      </c>
-      <c r="G60" s="32">
-        <v>1</v>
-      </c>
-      <c r="H60" s="32">
-        <v>1</v>
-      </c>
-      <c r="I60" s="31">
+      <c r="E60" s="20">
+        <v>1</v>
+      </c>
+      <c r="F60" s="20">
+        <v>1</v>
+      </c>
+      <c r="G60" s="20">
+        <v>1</v>
+      </c>
+      <c r="H60" s="20">
+        <v>1</v>
+      </c>
+      <c r="I60" s="30">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
       <c r="A61" s="18"/>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="32">
-        <v>2</v>
-      </c>
-      <c r="E61" s="32">
-        <v>1</v>
-      </c>
-      <c r="F61" s="32">
-        <v>2</v>
-      </c>
-      <c r="G61" s="32">
-        <v>1</v>
-      </c>
-      <c r="H61" s="32">
-        <v>1</v>
-      </c>
-      <c r="I61" s="31">
+      <c r="D61" s="20">
+        <v>2</v>
+      </c>
+      <c r="E61" s="20">
+        <v>1</v>
+      </c>
+      <c r="F61" s="20">
+        <v>2</v>
+      </c>
+      <c r="G61" s="20">
+        <v>1</v>
+      </c>
+      <c r="H61" s="20">
+        <v>1</v>
+      </c>
+      <c r="I61" s="30">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:9">
       <c r="A62" s="18"/>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="32">
-        <v>1</v>
-      </c>
-      <c r="E62" s="32">
+      <c r="D62" s="20">
+        <v>1</v>
+      </c>
+      <c r="E62" s="20">
         <v>0</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="20">
         <v>0</v>
       </c>
-      <c r="G62" s="32">
-        <v>1</v>
-      </c>
-      <c r="H62" s="32">
-        <v>1</v>
-      </c>
-      <c r="I62" s="31">
+      <c r="G62" s="20">
+        <v>1</v>
+      </c>
+      <c r="H62" s="20">
+        <v>1</v>
+      </c>
+      <c r="I62" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="32">
-        <v>2</v>
-      </c>
-      <c r="E63" s="32">
+      <c r="D63" s="20">
+        <v>2</v>
+      </c>
+      <c r="E63" s="20">
         <v>0</v>
       </c>
-      <c r="F63" s="32">
-        <v>1</v>
-      </c>
-      <c r="G63" s="32">
-        <v>1</v>
-      </c>
-      <c r="H63" s="32">
-        <v>1</v>
-      </c>
-      <c r="I63" s="31">
+      <c r="F63" s="20">
+        <v>1</v>
+      </c>
+      <c r="G63" s="20">
+        <v>1</v>
+      </c>
+      <c r="H63" s="20">
+        <v>1</v>
+      </c>
+      <c r="I63" s="30">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="30"/>
-      <c r="B64" s="31" t="s">
+      <c r="A64" s="29"/>
+      <c r="B64" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="20">
         <v>8</v>
       </c>
-      <c r="E64" s="32">
-        <v>1</v>
-      </c>
-      <c r="F64" s="32">
-        <v>2</v>
-      </c>
-      <c r="G64" s="32">
-        <v>1</v>
-      </c>
-      <c r="H64" s="32">
-        <v>1</v>
-      </c>
-      <c r="I64" s="31">
+      <c r="E64" s="20">
+        <v>1</v>
+      </c>
+      <c r="F64" s="20">
+        <v>2</v>
+      </c>
+      <c r="G64" s="20">
+        <v>1</v>
+      </c>
+      <c r="H64" s="20">
+        <v>1</v>
+      </c>
+      <c r="I64" s="30">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:19">
-      <c r="A65" s="30"/>
-      <c r="B65" s="31" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="32">
-        <v>2</v>
-      </c>
-      <c r="E65" s="32">
-        <v>1</v>
-      </c>
-      <c r="F65" s="32">
-        <v>2</v>
-      </c>
-      <c r="G65" s="32">
-        <v>1</v>
-      </c>
-      <c r="H65" s="32">
-        <v>1</v>
-      </c>
-      <c r="I65" s="31">
+      <c r="D65" s="20">
+        <v>2</v>
+      </c>
+      <c r="E65" s="20">
+        <v>1</v>
+      </c>
+      <c r="F65" s="20">
+        <v>2</v>
+      </c>
+      <c r="G65" s="20">
+        <v>1</v>
+      </c>
+      <c r="H65" s="20">
+        <v>1</v>
+      </c>
+      <c r="I65" s="30">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="K65" s="33"/>
+      <c r="K65" s="31"/>
       <c r="L65" s="7"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -4032,36 +4146,36 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="31"/>
+      <c r="S65" s="30"/>
     </row>
     <row r="66" customHeight="1" spans="1:19">
-      <c r="A66" s="30"/>
-      <c r="B66" s="31" t="s">
+      <c r="A66" s="29"/>
+      <c r="B66" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="32">
-        <v>2</v>
-      </c>
-      <c r="E66" s="32">
+      <c r="D66" s="20">
+        <v>2</v>
+      </c>
+      <c r="E66" s="20">
         <v>0</v>
       </c>
-      <c r="F66" s="32">
-        <v>1</v>
-      </c>
-      <c r="G66" s="32">
-        <v>1</v>
-      </c>
-      <c r="H66" s="32">
-        <v>1</v>
-      </c>
-      <c r="I66" s="31">
+      <c r="F66" s="20">
+        <v>1</v>
+      </c>
+      <c r="G66" s="20">
+        <v>1</v>
+      </c>
+      <c r="H66" s="20">
+        <v>1</v>
+      </c>
+      <c r="I66" s="30">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="K66" s="33"/>
+      <c r="K66" s="31"/>
       <c r="L66" s="7"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
@@ -4069,36 +4183,36 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="31"/>
+      <c r="S66" s="30"/>
     </row>
     <row r="67" customHeight="1" spans="1:19">
-      <c r="A67" s="30"/>
-      <c r="B67" s="31" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="20">
         <v>4</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="20">
         <v>0</v>
       </c>
-      <c r="F67" s="32">
-        <v>1</v>
-      </c>
-      <c r="G67" s="32">
-        <v>1</v>
-      </c>
-      <c r="H67" s="32">
-        <v>1</v>
-      </c>
-      <c r="I67" s="31">
+      <c r="F67" s="20">
+        <v>1</v>
+      </c>
+      <c r="G67" s="20">
+        <v>1</v>
+      </c>
+      <c r="H67" s="20">
+        <v>1</v>
+      </c>
+      <c r="I67" s="30">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="K67" s="33"/>
+      <c r="K67" s="31"/>
       <c r="L67" s="7"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -4106,36 +4220,36 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
-      <c r="S67" s="31"/>
+      <c r="S67" s="30"/>
     </row>
     <row r="68" customHeight="1" spans="1:19">
-      <c r="A68" s="30"/>
-      <c r="B68" s="31" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="20">
         <v>6</v>
       </c>
-      <c r="E68" s="32">
-        <v>1</v>
-      </c>
-      <c r="F68" s="32">
-        <v>1</v>
-      </c>
-      <c r="G68" s="32">
-        <v>1</v>
-      </c>
-      <c r="H68" s="32">
-        <v>1</v>
-      </c>
-      <c r="I68" s="31">
+      <c r="E68" s="20">
+        <v>1</v>
+      </c>
+      <c r="F68" s="20">
+        <v>1</v>
+      </c>
+      <c r="G68" s="20">
+        <v>1</v>
+      </c>
+      <c r="H68" s="20">
+        <v>1</v>
+      </c>
+      <c r="I68" s="30">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="K68" s="33"/>
+      <c r="K68" s="31"/>
       <c r="L68" s="7"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
@@ -4143,36 +4257,36 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="31"/>
+      <c r="S68" s="30"/>
     </row>
     <row r="69" customHeight="1" spans="1:19">
-      <c r="A69" s="30"/>
-      <c r="B69" s="31" t="s">
+      <c r="A69" s="29"/>
+      <c r="B69" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="32">
+      <c r="D69" s="20">
         <v>4</v>
       </c>
-      <c r="E69" s="32">
-        <v>1</v>
-      </c>
-      <c r="F69" s="32">
-        <v>1</v>
-      </c>
-      <c r="G69" s="32">
-        <v>1</v>
-      </c>
-      <c r="H69" s="32">
-        <v>1</v>
-      </c>
-      <c r="I69" s="31">
+      <c r="E69" s="20">
+        <v>1</v>
+      </c>
+      <c r="F69" s="20">
+        <v>1</v>
+      </c>
+      <c r="G69" s="20">
+        <v>1</v>
+      </c>
+      <c r="H69" s="20">
+        <v>1</v>
+      </c>
+      <c r="I69" s="30">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K69" s="33"/>
+      <c r="K69" s="31"/>
       <c r="L69" s="7"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -4180,36 +4294,36 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="31"/>
+      <c r="S69" s="30"/>
     </row>
     <row r="70" customHeight="1" spans="1:19">
-      <c r="A70" s="30"/>
-      <c r="B70" s="31" t="s">
+      <c r="A70" s="29"/>
+      <c r="B70" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="32">
-        <v>1</v>
-      </c>
-      <c r="E70" s="32">
+      <c r="D70" s="20">
+        <v>1</v>
+      </c>
+      <c r="E70" s="20">
         <v>0</v>
       </c>
-      <c r="F70" s="32">
+      <c r="F70" s="20">
         <v>0</v>
       </c>
-      <c r="G70" s="32">
-        <v>1</v>
-      </c>
-      <c r="H70" s="32">
-        <v>1</v>
-      </c>
-      <c r="I70" s="31">
+      <c r="G70" s="20">
+        <v>1</v>
+      </c>
+      <c r="H70" s="20">
+        <v>1</v>
+      </c>
+      <c r="I70" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="K70" s="33"/>
+      <c r="K70" s="31"/>
       <c r="L70" s="7"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
@@ -4217,36 +4331,36 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="31"/>
+      <c r="S70" s="30"/>
     </row>
     <row r="71" customHeight="1" spans="1:19">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31" t="s">
+      <c r="A71" s="29"/>
+      <c r="B71" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="20">
         <v>4</v>
       </c>
-      <c r="E71" s="32">
-        <v>1</v>
-      </c>
-      <c r="F71" s="32">
-        <v>1</v>
-      </c>
-      <c r="G71" s="32">
-        <v>1</v>
-      </c>
-      <c r="H71" s="32">
-        <v>1</v>
-      </c>
-      <c r="I71" s="31">
+      <c r="E71" s="20">
+        <v>1</v>
+      </c>
+      <c r="F71" s="20">
+        <v>1</v>
+      </c>
+      <c r="G71" s="20">
+        <v>1</v>
+      </c>
+      <c r="H71" s="20">
+        <v>1</v>
+      </c>
+      <c r="I71" s="30">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K71" s="33"/>
+      <c r="K71" s="31"/>
       <c r="L71" s="7"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -4254,36 +4368,36 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="31"/>
+      <c r="S71" s="30"/>
     </row>
     <row r="72" customHeight="1" spans="1:19">
-      <c r="A72" s="30"/>
-      <c r="B72" s="31" t="s">
+      <c r="A72" s="29"/>
+      <c r="B72" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D72" s="20">
         <v>3</v>
       </c>
-      <c r="E72" s="32">
-        <v>2</v>
-      </c>
-      <c r="F72" s="32">
-        <v>2</v>
-      </c>
-      <c r="G72" s="32">
-        <v>1</v>
-      </c>
-      <c r="H72" s="32">
-        <v>1</v>
-      </c>
-      <c r="I72" s="31">
+      <c r="E72" s="20">
+        <v>2</v>
+      </c>
+      <c r="F72" s="20">
+        <v>2</v>
+      </c>
+      <c r="G72" s="20">
+        <v>1</v>
+      </c>
+      <c r="H72" s="20">
+        <v>1</v>
+      </c>
+      <c r="I72" s="30">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K72" s="33"/>
+      <c r="K72" s="31"/>
       <c r="L72" s="7"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
@@ -4291,38 +4405,38 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
-      <c r="S72" s="31"/>
+      <c r="S72" s="30"/>
     </row>
     <row r="73" customHeight="1" spans="1:19">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="20">
         <v>4</v>
       </c>
-      <c r="E73" s="32">
-        <v>1</v>
-      </c>
-      <c r="F73" s="32">
-        <v>1</v>
-      </c>
-      <c r="G73" s="32">
-        <v>1</v>
-      </c>
-      <c r="H73" s="32">
-        <v>1</v>
-      </c>
-      <c r="I73" s="31">
+      <c r="E73" s="20">
+        <v>1</v>
+      </c>
+      <c r="F73" s="20">
+        <v>1</v>
+      </c>
+      <c r="G73" s="20">
+        <v>1</v>
+      </c>
+      <c r="H73" s="20">
+        <v>1</v>
+      </c>
+      <c r="I73" s="30">
         <f t="shared" ref="I73:I84" si="7">((G73+H73)*0.5)*D73*10*(1+(E73+F73)*0.25)</f>
         <v>60</v>
       </c>
-      <c r="K73" s="33"/>
+      <c r="K73" s="31"/>
       <c r="L73" s="7"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -4330,179 +4444,179 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="31"/>
+      <c r="S73" s="30"/>
     </row>
     <row r="74" customHeight="1" spans="1:19">
       <c r="A74" s="18"/>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="20">
         <v>3</v>
       </c>
-      <c r="E74" s="32">
+      <c r="E74" s="20">
         <v>0</v>
       </c>
-      <c r="F74" s="32">
-        <v>1</v>
-      </c>
-      <c r="G74" s="32">
-        <v>1</v>
-      </c>
-      <c r="H74" s="32">
-        <v>1</v>
-      </c>
-      <c r="I74" s="31">
+      <c r="F74" s="20">
+        <v>1</v>
+      </c>
+      <c r="G74" s="20">
+        <v>1</v>
+      </c>
+      <c r="H74" s="20">
+        <v>1</v>
+      </c>
+      <c r="I74" s="30">
         <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
-      <c r="S74" s="31"/>
+      <c r="S74" s="30"/>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="A75" s="18"/>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="20">
         <v>10</v>
       </c>
-      <c r="E75" s="32">
-        <v>1</v>
-      </c>
-      <c r="F75" s="32">
-        <v>2</v>
-      </c>
-      <c r="G75" s="32">
-        <v>1</v>
-      </c>
-      <c r="H75" s="32">
-        <v>1</v>
-      </c>
-      <c r="I75" s="31">
+      <c r="E75" s="20">
+        <v>1</v>
+      </c>
+      <c r="F75" s="20">
+        <v>2</v>
+      </c>
+      <c r="G75" s="20">
+        <v>1</v>
+      </c>
+      <c r="H75" s="20">
+        <v>1</v>
+      </c>
+      <c r="I75" s="30">
         <f t="shared" si="7"/>
         <v>175</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:9">
       <c r="A76" s="18"/>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="32">
-        <v>1</v>
-      </c>
-      <c r="E76" s="32">
+      <c r="D76" s="20">
+        <v>1</v>
+      </c>
+      <c r="E76" s="20">
         <v>0</v>
       </c>
-      <c r="F76" s="32">
-        <v>1</v>
-      </c>
-      <c r="G76" s="32">
-        <v>1</v>
-      </c>
-      <c r="H76" s="32">
-        <v>1</v>
-      </c>
-      <c r="I76" s="31">
+      <c r="F76" s="20">
+        <v>1</v>
+      </c>
+      <c r="G76" s="20">
+        <v>1</v>
+      </c>
+      <c r="H76" s="20">
+        <v>1</v>
+      </c>
+      <c r="I76" s="30">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:9">
       <c r="A77" s="18"/>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="20">
         <v>1.5</v>
       </c>
-      <c r="E77" s="32">
-        <v>1</v>
-      </c>
-      <c r="F77" s="32">
-        <v>2</v>
-      </c>
-      <c r="G77" s="32">
-        <v>1</v>
-      </c>
-      <c r="H77" s="32">
-        <v>1</v>
-      </c>
-      <c r="I77" s="31">
+      <c r="E77" s="20">
+        <v>1</v>
+      </c>
+      <c r="F77" s="20">
+        <v>2</v>
+      </c>
+      <c r="G77" s="20">
+        <v>1</v>
+      </c>
+      <c r="H77" s="20">
+        <v>1</v>
+      </c>
+      <c r="I77" s="30">
         <f t="shared" si="7"/>
         <v>26.25</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:9">
       <c r="A78" s="18"/>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="32">
-        <v>1</v>
-      </c>
-      <c r="E78" s="32">
+      <c r="D78" s="20">
+        <v>1</v>
+      </c>
+      <c r="E78" s="20">
         <v>0</v>
       </c>
-      <c r="F78" s="32">
-        <v>1</v>
-      </c>
-      <c r="G78" s="32">
-        <v>1</v>
-      </c>
-      <c r="H78" s="32">
-        <v>1</v>
-      </c>
-      <c r="I78" s="31">
+      <c r="F78" s="20">
+        <v>1</v>
+      </c>
+      <c r="G78" s="20">
+        <v>1</v>
+      </c>
+      <c r="H78" s="20">
+        <v>1</v>
+      </c>
+      <c r="I78" s="30">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:9">
       <c r="A79" s="18"/>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="20">
         <v>4</v>
       </c>
-      <c r="E79" s="32">
-        <v>2</v>
-      </c>
-      <c r="F79" s="32">
-        <v>2</v>
-      </c>
-      <c r="G79" s="32">
-        <v>1</v>
-      </c>
-      <c r="H79" s="32">
-        <v>1</v>
-      </c>
-      <c r="I79" s="31">
+      <c r="E79" s="20">
+        <v>2</v>
+      </c>
+      <c r="F79" s="20">
+        <v>2</v>
+      </c>
+      <c r="G79" s="20">
+        <v>1</v>
+      </c>
+      <c r="H79" s="20">
+        <v>1</v>
+      </c>
+      <c r="I79" s="30">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -4526,13 +4640,13 @@
       <c r="H80" s="8">
         <v>1</v>
       </c>
-      <c r="I80" s="31">
+      <c r="I80" s="30">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:9">
-      <c r="A81" s="33"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="7" t="s">
         <v>16</v>
       </c>
@@ -4554,13 +4668,13 @@
       <c r="H81" s="8">
         <v>1</v>
       </c>
-      <c r="I81" s="31">
+      <c r="I81" s="30">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:9">
-      <c r="A82" s="33"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="7" t="s">
         <v>15</v>
       </c>
@@ -4582,13 +4696,13 @@
       <c r="H82" s="8">
         <v>1</v>
       </c>
-      <c r="I82" s="31">
+      <c r="I82" s="30">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:9">
-      <c r="A83" s="33"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="7" t="s">
         <v>17</v>
       </c>
@@ -4610,13 +4724,13 @@
       <c r="H83" s="8">
         <v>1</v>
       </c>
-      <c r="I83" s="31">
+      <c r="I83" s="30">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:9">
-      <c r="A84" s="33"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="4" t="s">
         <v>16</v>
       </c>
@@ -4638,13 +4752,13 @@
       <c r="H84" s="17">
         <v>1</v>
       </c>
-      <c r="I84" s="47">
+      <c r="I84" s="33">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
-      <c r="A85" s="33"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="4"/>
       <c r="C85" s="8" t="s">
         <v>115</v>
@@ -4660,10 +4774,10 @@
       <c r="H85" s="17">
         <v>2</v>
       </c>
-      <c r="I85" s="47"/>
+      <c r="I85" s="33"/>
     </row>
     <row r="86" customHeight="1" spans="1:9">
-      <c r="A86" s="33"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="4"/>
       <c r="C86" s="8" t="s">
         <v>116</v>
@@ -4679,10 +4793,10 @@
       <c r="H86" s="17">
         <v>3</v>
       </c>
-      <c r="I86" s="47"/>
+      <c r="I86" s="33"/>
     </row>
     <row r="87" customHeight="1" spans="1:9">
-      <c r="A87" s="33"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="4"/>
       <c r="C87" s="8" t="s">
         <v>117</v>
@@ -4692,10 +4806,10 @@
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="47"/>
+      <c r="I87" s="33"/>
     </row>
     <row r="88" customHeight="1" spans="1:9">
-      <c r="A88" s="33"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="4"/>
       <c r="C88" s="8" t="s">
         <v>118</v>
@@ -4705,10 +4819,10 @@
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="47"/>
+      <c r="I88" s="33"/>
     </row>
     <row r="89" customHeight="1" spans="1:9">
-      <c r="A89" s="33"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="7" t="s">
         <v>15</v>
       </c>
@@ -4730,13 +4844,13 @@
       <c r="H89" s="8">
         <v>1</v>
       </c>
-      <c r="I89" s="31">
+      <c r="I89" s="30">
         <f>((G89+H89)*0.5)*D89*10*(1+(E89+F89)*0.25)</f>
         <v>35</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
-      <c r="A90" s="33"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="7" t="s">
         <v>15</v>
       </c>
@@ -4758,13 +4872,13 @@
       <c r="H90" s="8">
         <v>1</v>
       </c>
-      <c r="I90" s="31">
+      <c r="I90" s="30">
         <f>((G90+H90)*0.5)*D90*10*(1+(E90+F90)*0.25)</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
-      <c r="A91" s="33"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="7" t="s">
         <v>12</v>
       </c>
@@ -4786,13 +4900,13 @@
       <c r="H91" s="8">
         <v>1</v>
       </c>
-      <c r="I91" s="31">
+      <c r="I91" s="30">
         <f>((G91+H91)*0.5)*D91*10*(1+(E91+F91)*0.25)</f>
         <v>15</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="31" t="s">
         <v>122</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -4816,7 +4930,7 @@
       <c r="H92" s="8">
         <v>1</v>
       </c>
-      <c r="I92" s="31">
+      <c r="I92" s="30">
         <f t="shared" ref="I92:I105" si="8">((G92+H92)*0.5)*D92*10*(1+(E92+F92)*0.25)</f>
         <v>12.5</v>
       </c>
@@ -4844,7 +4958,7 @@
       <c r="H93" s="8">
         <v>1</v>
       </c>
-      <c r="I93" s="31">
+      <c r="I93" s="30">
         <f t="shared" si="8"/>
         <v>17.5</v>
       </c>
@@ -4872,7 +4986,7 @@
       <c r="H94" s="8">
         <v>1</v>
       </c>
-      <c r="I94" s="31">
+      <c r="I94" s="30">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -4900,7 +5014,7 @@
       <c r="H95" s="8">
         <v>1</v>
       </c>
-      <c r="I95" s="31">
+      <c r="I95" s="30">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -4928,7 +5042,7 @@
       <c r="H96" s="8">
         <v>1</v>
       </c>
-      <c r="I96" s="31">
+      <c r="I96" s="30">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -4956,7 +5070,7 @@
       <c r="H97" s="8">
         <v>1</v>
       </c>
-      <c r="I97" s="31">
+      <c r="I97" s="30">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -4984,7 +5098,7 @@
       <c r="H98" s="8">
         <v>1</v>
       </c>
-      <c r="I98" s="31">
+      <c r="I98" s="30">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
@@ -5012,7 +5126,7 @@
       <c r="H99" s="8">
         <v>1</v>
       </c>
-      <c r="I99" s="31">
+      <c r="I99" s="30">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -5040,7 +5154,7 @@
       <c r="H100" s="8">
         <v>1</v>
       </c>
-      <c r="I100" s="31">
+      <c r="I100" s="30">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -5068,7 +5182,7 @@
       <c r="H101" s="8">
         <v>1</v>
       </c>
-      <c r="I101" s="31">
+      <c r="I101" s="30">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
@@ -5096,7 +5210,7 @@
       <c r="H102" s="8">
         <v>1</v>
       </c>
-      <c r="I102" s="31">
+      <c r="I102" s="30">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -5124,19 +5238,19 @@
       <c r="H103" s="8">
         <v>1</v>
       </c>
-      <c r="I103" s="31">
+      <c r="I103" s="30">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="9:9">
-      <c r="I104" s="31">
+      <c r="I104" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="9:9">
-      <c r="I105" s="31">
+      <c r="I105" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5185,10 +5299,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -5218,7 +5332,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="37"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
@@ -5287,29 +5401,29 @@
       <c r="H3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="38">
-        <f ca="1">SUMIF($B$3:$B$105,I2,$G3:$G45)</f>
-        <v>45</v>
-      </c>
-      <c r="J3" s="38">
-        <f ca="1">SUMIF($B$3:$B$105,J2,$G3:$G45)</f>
-        <v>147</v>
-      </c>
-      <c r="K3" s="38">
-        <f ca="1">SUMIF($B$3:$B$105,K2,$G3:$G45)</f>
-        <v>308</v>
-      </c>
-      <c r="L3" s="38">
-        <f ca="1">SUMIF($B$3:$B$105,L2,$G3:$G45)</f>
-        <v>212.8</v>
-      </c>
-      <c r="M3" s="38">
-        <f ca="1">SUMIF($B$3:$B$105,M2,$G3:$G45)</f>
-        <v>126</v>
+      <c r="I3" s="35">
+        <f ca="1">SUMIF($B$3:$B$105,I2,$G3:$G94)</f>
+        <v>398</v>
+      </c>
+      <c r="J3" s="35">
+        <f ca="1">SUMIF($B$3:$B$105,J2,$G3:$G94)</f>
+        <v>325</v>
+      </c>
+      <c r="K3" s="35">
+        <f ca="1">SUMIF($B$3:$B$105,K2,$G3:$G94)</f>
+        <v>418</v>
+      </c>
+      <c r="L3" s="35">
+        <f ca="1">SUMIF($B$3:$B$105,L2,$G3:$G94)</f>
+        <v>280.8</v>
+      </c>
+      <c r="M3" s="35">
+        <f ca="1">SUMIF($B$3:$B$105,M2,$G3:$G94)</f>
+        <v>423</v>
       </c>
       <c r="N3">
         <f ca="1">SUM(I3:M3)</f>
-        <v>838.8</v>
+        <v>1844.8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:13">
@@ -5336,25 +5450,25 @@
       <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="39">
-        <f ca="1">I3/$N3*300</f>
-        <v>16.0944206008584</v>
-      </c>
-      <c r="J4" s="39">
-        <f ca="1">J3/$N3*300</f>
-        <v>52.5751072961373</v>
-      </c>
-      <c r="K4" s="39">
-        <f ca="1">K3/$N3*300</f>
-        <v>110.157367668097</v>
-      </c>
-      <c r="L4" s="39">
-        <f ca="1">L3/$N3*300</f>
-        <v>76.1087267525036</v>
-      </c>
-      <c r="M4" s="39">
-        <f ca="1">M3/$N3*300</f>
-        <v>45.0643776824034</v>
+      <c r="I4" s="36">
+        <f ca="1">I3/$N3*250</f>
+        <v>53.9353859496964</v>
+      </c>
+      <c r="J4" s="36">
+        <f ca="1">J3/$N3*250</f>
+        <v>44.0427146574154</v>
+      </c>
+      <c r="K4" s="36">
+        <f ca="1">K3/$N3*250</f>
+        <v>56.6457068516912</v>
+      </c>
+      <c r="L4" s="36">
+        <f ca="1">L3/$N3*250</f>
+        <v>38.0529054640069</v>
+      </c>
+      <c r="M4" s="36">
+        <f ca="1">M3/$N3*250</f>
+        <v>57.3232870771899</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
@@ -5381,11 +5495,11 @@
       <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="10"/>
@@ -5431,7 +5545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>144</v>
       </c>
@@ -5453,6 +5567,9 @@
       <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>8.8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
@@ -5461,7 +5578,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="8">
         <v>6</v>
@@ -5483,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" s="8">
         <v>2.5</v>
@@ -5505,7 +5622,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" s="8">
         <v>0.5</v>
@@ -5523,13 +5640,13 @@
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -5551,7 +5668,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
@@ -5573,7 +5690,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D14" s="8">
         <v>8</v>
@@ -5595,7 +5712,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8">
         <v>4</v>
@@ -5613,13 +5730,13 @@
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D16" s="17">
         <v>3</v>
@@ -5639,7 +5756,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -5650,23 +5767,20 @@
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="I18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" customHeight="1" spans="1:15">
       <c r="A19" s="15"/>
@@ -5674,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" s="8">
         <v>0.5</v>
@@ -5689,14 +5803,14 @@
         <f>F19*D19*(1+E19)*5</f>
         <v>5</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="41"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" customHeight="1" spans="1:14">
       <c r="A20" s="15"/>
@@ -5719,13 +5833,13 @@
         <f>F20*D20*(1+E20)*5</f>
         <v>10</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" customHeight="1" spans="1:14">
       <c r="A21" s="19" t="s">
@@ -5743,23 +5857,23 @@
       <c r="E21" s="8">
         <v>1.2</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20">
         <f>F21*D21*(1+E21)*5</f>
         <v>22</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
     </row>
     <row r="22" customHeight="1" spans="1:14">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
@@ -5772,24 +5886,24 @@
       <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20">
         <f>F22*D22*(1+E22)*5</f>
         <v>10</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -5801,60 +5915,60 @@
       <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="23">
         <v>1.3</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="23">
         <f>F23*D23*(1+E23)*5</f>
         <v>78</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="8" t="s">
         <v>167</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="J24" s="42" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="J24" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" customHeight="1" spans="1:15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="J25" s="43" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="J25" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="41"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" customHeight="1" spans="1:14">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
@@ -5870,20 +5984,20 @@
       <c r="F26" s="18">
         <v>1.2</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="23">
         <f>F26*D26*(1+E26)*5</f>
         <v>36</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
         <v>173</v>
@@ -5891,10 +6005,10 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="7" t="s">
         <v>17</v>
       </c>
@@ -5916,7 +6030,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
@@ -5938,7 +6052,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
@@ -5960,12 +6074,12 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="29"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" s="8">
         <v>0.5</v>
@@ -5982,364 +6096,1231 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="20">
         <v>3</v>
       </c>
-      <c r="E32" s="32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="32">
+      <c r="E32" s="20">
+        <v>1</v>
+      </c>
+      <c r="F32" s="20">
         <v>1.2</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="20">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="32">
-        <v>1</v>
-      </c>
-      <c r="E33" s="32">
-        <v>1</v>
-      </c>
-      <c r="F33" s="32">
-        <v>1</v>
-      </c>
-      <c r="G33" s="32">
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1</v>
+      </c>
+      <c r="F33" s="20">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="32">
+      <c r="C34" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="20">
         <v>0.5</v>
       </c>
-      <c r="E34" s="32">
-        <v>1</v>
-      </c>
-      <c r="F34" s="32">
-        <v>1</v>
-      </c>
-      <c r="G34" s="32">
+      <c r="E34" s="20">
+        <v>1</v>
+      </c>
+      <c r="F34" s="20">
+        <v>1</v>
+      </c>
+      <c r="G34" s="20">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31" t="s">
+    <row r="35" customHeight="1" spans="1:11">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="32">
-        <v>2</v>
-      </c>
-      <c r="E35" s="32">
-        <v>1</v>
-      </c>
-      <c r="F35" s="32">
+      <c r="D35" s="20">
+        <v>2</v>
+      </c>
+      <c r="E35" s="20">
+        <v>1</v>
+      </c>
+      <c r="F35" s="20">
         <v>1.3</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:11">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:11">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="32" t="s">
+      <c r="D36" s="20">
+        <v>2</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" ref="G36:G49" si="3">F36*D36*(1+E36)*5</f>
+        <v>24</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:11">
+      <c r="A37" s="31" t="s">
         <v>182</v>
-      </c>
-      <c r="D36" s="32">
-        <v>2</v>
-      </c>
-      <c r="E36" s="32">
-        <v>1</v>
-      </c>
-      <c r="F36" s="32">
-        <v>1.2</v>
-      </c>
-      <c r="G36" s="32">
-        <f t="shared" ref="G36:G42" si="3">F36*D36*(1+E36)*5</f>
-        <v>24</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:11">
-      <c r="A37" s="33" t="s">
-        <v>184</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="20">
         <v>6</v>
       </c>
-      <c r="E37" s="34">
-        <v>1</v>
-      </c>
-      <c r="F37" s="34">
+      <c r="E37" s="20">
+        <v>1</v>
+      </c>
+      <c r="F37" s="20">
         <v>1.5</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="20">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="I37" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:12">
-      <c r="A38" s="33"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:11">
+      <c r="A38" s="31"/>
       <c r="B38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="35">
-        <v>2</v>
-      </c>
-      <c r="E38" s="35">
-        <v>1</v>
-      </c>
-      <c r="F38" s="35">
-        <v>1</v>
-      </c>
-      <c r="G38" s="34">
+      <c r="C38" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="20">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I38" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38">
-        <v>2</v>
-      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
     </row>
     <row r="39" customHeight="1" spans="1:11">
-      <c r="A39" s="33"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="34">
+      <c r="C39" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="33"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:15">
+      <c r="A40" s="31"/>
       <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="34">
-        <v>1</v>
-      </c>
-      <c r="E40" s="34">
-        <v>1</v>
-      </c>
-      <c r="F40" s="34">
-        <v>1</v>
-      </c>
-      <c r="G40" s="34">
+      <c r="C40" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1</v>
+      </c>
+      <c r="E40" s="20">
+        <v>1</v>
+      </c>
+      <c r="F40" s="20">
+        <v>1</v>
+      </c>
+      <c r="G40" s="20">
         <f>F40*D40*(1+E40)*5+15</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="33"/>
+      <c r="I40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:15">
+      <c r="A41" s="31"/>
       <c r="B41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="34">
-        <v>2</v>
-      </c>
-      <c r="E41" s="34">
-        <v>1</v>
-      </c>
-      <c r="F41" s="34">
-        <v>1</v>
-      </c>
-      <c r="G41" s="34">
+      <c r="C41" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="20">
+        <v>2</v>
+      </c>
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:7">
-      <c r="A42" s="33"/>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:15">
+      <c r="A42" s="31"/>
       <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="8">
+      <c r="C42" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="20">
         <v>0.5</v>
       </c>
-      <c r="E42" s="8">
-        <v>1</v>
-      </c>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="E42" s="20">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="2" t="s">
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:15">
+      <c r="A43" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44">
+      <c r="C43" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1</v>
+      </c>
+      <c r="E43" s="20">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20">
+        <v>1</v>
+      </c>
+      <c r="G43" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="20">
+        <v>2</v>
+      </c>
+      <c r="E44" s="20">
+        <v>1</v>
+      </c>
+      <c r="F44" s="20">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="20">
+        <v>1</v>
+      </c>
+      <c r="E45" s="20">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="17"/>
+      <c r="B46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="20">
+        <v>1</v>
+      </c>
+      <c r="F46" s="20">
+        <v>1</v>
+      </c>
+      <c r="G46" s="20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="20">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
+      <c r="A48" s="17"/>
+      <c r="B48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="20">
+        <v>1</v>
+      </c>
+      <c r="E48" s="20">
+        <v>1</v>
+      </c>
+      <c r="F48" s="20">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="17"/>
+      <c r="B49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="20">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:4">
-      <c r="B45" s="7" t="s">
+      <c r="E49" s="20">
+        <v>1</v>
+      </c>
+      <c r="F49" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G49" s="20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="17"/>
+      <c r="B50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C50" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="20">
+        <v>3</v>
+      </c>
+      <c r="E50" s="20">
+        <v>1</v>
+      </c>
+      <c r="F50" s="20">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20">
+        <f>F50*D50*(1+E50)*5+25</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20">
+        <v>1</v>
+      </c>
+      <c r="F51" s="20">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20">
+        <f>F51*D51*(1+E51)*5+10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="29"/>
+      <c r="B52" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="20">
+        <v>1</v>
+      </c>
+      <c r="E52" s="20">
+        <v>1</v>
+      </c>
+      <c r="F52" s="20">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20">
+        <f>F52*D52*(1+E52)*5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="29"/>
+      <c r="B53" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="20">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20">
+        <v>1</v>
+      </c>
+      <c r="F53" s="20">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20">
+        <f>F53*D53*(1+E53)*5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="29"/>
+      <c r="B54" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:4">
-      <c r="B46" s="7" t="s">
+      <c r="E54" s="20">
+        <v>1</v>
+      </c>
+      <c r="F54" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="G54" s="20">
+        <f>F54*D54*(1+E54)*5</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="29"/>
+      <c r="B55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="20">
+        <v>1</v>
+      </c>
+      <c r="F55" s="20">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20">
+        <f>F55*D55*(1+E55)*5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:7">
+      <c r="A56" s="29"/>
+      <c r="B56" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:4">
-      <c r="B47" s="7" t="s">
+      <c r="C56" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="18">
+        <v>5</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1</v>
+      </c>
+      <c r="G56" s="18">
+        <f>F56*D56*(1+E56)*5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:7">
+      <c r="A57" s="29"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:7">
+      <c r="A58" s="29"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
+      <c r="A59" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="20">
+        <v>1</v>
+      </c>
+      <c r="F59" s="20">
+        <v>1</v>
+      </c>
+      <c r="G59" s="20">
+        <f t="shared" ref="G59:G66" si="4">F59*D59*(1+E59)*5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:7">
+      <c r="A60" s="31"/>
+      <c r="B60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="20">
+        <v>1</v>
+      </c>
+      <c r="F60" s="20">
+        <v>1</v>
+      </c>
+      <c r="G60" s="20">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:7">
+      <c r="A61" s="31"/>
+      <c r="B61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="20">
+        <v>4</v>
+      </c>
+      <c r="E61" s="20">
+        <v>1</v>
+      </c>
+      <c r="F61" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="G61" s="20">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:7">
+      <c r="A62" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="20">
+        <v>2</v>
+      </c>
+      <c r="E62" s="20">
+        <v>1</v>
+      </c>
+      <c r="F62" s="20">
+        <v>1</v>
+      </c>
+      <c r="G62" s="20">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="20">
+        <v>1</v>
+      </c>
+      <c r="E63" s="20">
+        <v>1</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G63" s="20">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
+      <c r="A64" s="29"/>
+      <c r="B64" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="20">
+        <v>1</v>
+      </c>
+      <c r="E64" s="20">
+        <v>1</v>
+      </c>
+      <c r="F64" s="20">
+        <v>1</v>
+      </c>
+      <c r="G64" s="20">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:7">
+      <c r="A65" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1</v>
+      </c>
+      <c r="G65" s="20">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
+      <c r="A66" s="17"/>
+      <c r="B66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8">
+        <v>1</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1</v>
+      </c>
+      <c r="G66" s="20">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:7">
+      <c r="A67" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="8">
+        <v>2</v>
+      </c>
+      <c r="E67" s="8">
+        <v>1</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1</v>
+      </c>
+      <c r="G67" s="20">
+        <f t="shared" ref="G67:G82" si="5">F67*D67*(1+E67)*5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
+      <c r="A68" s="10"/>
+      <c r="B68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="8">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1</v>
+      </c>
+      <c r="G68" s="20">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:7">
+      <c r="A69" s="10"/>
+      <c r="B69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="8">
+        <v>2</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1</v>
+      </c>
+      <c r="G69" s="20">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
+      <c r="A70" s="10"/>
+      <c r="B70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="8">
+        <v>2</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1</v>
+      </c>
+      <c r="G70" s="20">
+        <f>F70*D70*(1+E70)*5+15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
+      <c r="A71" s="10"/>
+      <c r="B71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="8">
+        <v>4</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1</v>
+      </c>
+      <c r="G71" s="20">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="10"/>
+      <c r="B72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" s="8">
+        <v>13</v>
+      </c>
+      <c r="E72" s="8">
+        <v>1</v>
+      </c>
+      <c r="F72" s="8">
+        <v>1</v>
+      </c>
+      <c r="G72" s="20">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:7">
+      <c r="A73" s="10"/>
+      <c r="B73" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:3">
-      <c r="B48" s="2" t="s">
+      <c r="C73" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="8">
+        <v>6</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1</v>
+      </c>
+      <c r="G73" s="20">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
+      <c r="A74" s="10"/>
+      <c r="B74" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:4">
-      <c r="B49" s="2" t="s">
+      <c r="C74" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="8">
+        <v>3</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1</v>
+      </c>
+      <c r="G74" s="20">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
+      <c r="A75" s="10"/>
+      <c r="B75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="8">
+        <v>6</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1</v>
+      </c>
+      <c r="F75" s="8">
+        <v>1</v>
+      </c>
+      <c r="G75" s="20">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:7">
+      <c r="A76" s="10"/>
+      <c r="B76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="8">
+        <v>3</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1</v>
+      </c>
+      <c r="G76" s="20">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:7">
+      <c r="A77" s="11"/>
+      <c r="B77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1</v>
+      </c>
+      <c r="G77" s="20">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:7">
+      <c r="A78" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C49" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50">
+      <c r="C78" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:3">
-      <c r="B51" s="2" t="s">
+      <c r="E78" s="8">
+        <v>1</v>
+      </c>
+      <c r="F78" s="8">
+        <v>1</v>
+      </c>
+      <c r="G78" s="20">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
+      <c r="A79" s="17"/>
+      <c r="B79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1</v>
+      </c>
+      <c r="G79" s="20">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:7">
+      <c r="A80" s="17"/>
+      <c r="B80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1</v>
+      </c>
+      <c r="G80" s="20">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:7">
+      <c r="A81" s="17"/>
+      <c r="B81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8">
+        <v>2</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1</v>
+      </c>
+      <c r="G81" s="20">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:7">
+      <c r="A82" s="42"/>
+      <c r="B82" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="2" t="s">
-        <v>199</v>
+      <c r="C82" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1</v>
+      </c>
+      <c r="G82" s="20">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:7">
+      <c r="A83" s="42"/>
+      <c r="B83" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="44">
+        <v>1</v>
+      </c>
+      <c r="E83" s="44">
+        <v>1</v>
+      </c>
+      <c r="F83" s="44">
+        <v>1</v>
+      </c>
+      <c r="G83" s="20">
+        <f>F83*D83*(1+E83)*5</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="62">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="J18:N18"/>
@@ -6351,6 +7332,18 @@
     <mergeCell ref="J24:N24"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -6358,24 +7351,38 @@
     <mergeCell ref="A21:A31"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A83"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B56:B58"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D56:D58"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E56:E58"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F56:F58"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G56:G58"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
